--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -16,6 +16,7 @@
     <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
+    <sheet name="角色" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="413">
   <si>
     <r>
       <rPr>
@@ -2751,6 +2752,339 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>h_inherit_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level</t>
+  </si>
+  <si>
+    <t>h_parent_role_assign_level_val</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>is_modified</t>
+  </si>
+  <si>
+    <t>is_enable_forbidden</t>
+  </si>
+  <si>
+    <t>is_built_in</t>
+  </si>
+  <si>
+    <t>is_assignable</t>
+  </si>
+  <si>
+    <t>h_inherit_level_path</t>
+  </si>
+  <si>
+    <t>#created_by_tenant_id</t>
+  </si>
+  <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
+    <t>iam_role-8</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>abcf</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
+    <t>iam_role-11</t>
+  </si>
+  <si>
+    <t>租户成员模板</t>
+  </si>
+  <si>
+    <t>Organization Member template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>租户成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>iam_role-12</t>
+  </si>
+  <si>
+    <t>项目管理员模板</t>
+  </si>
+  <si>
+    <t>Project Admin template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>项目管理员</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>iam_role-13</t>
+  </si>
+  <si>
+    <t>项目成员模板</t>
+  </si>
+  <si>
+    <t>Project member template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>Project member</t>
+  </si>
+  <si>
+    <t>iam_role-14</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>Site Developer</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#permission_id</t>
+  </si>
+  <si>
+    <t>h_create_flag</t>
+  </si>
+  <si>
+    <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>iam_role_permission-31</t>
+  </si>
+  <si>
+    <t>iam_role_permission-32</t>
+  </si>
+  <si>
+    <t>iam_role_permission-33</t>
+  </si>
+  <si>
+    <t>iam_role_permission-34</t>
+  </si>
+  <si>
+    <t>iam_role_permission-35</t>
+  </si>
+  <si>
+    <t>iam_role_permission-36</t>
+  </si>
+  <si>
+    <t>iam_role_permission-37</t>
+  </si>
+  <si>
+    <t>iam_role_permission-38</t>
+  </si>
+  <si>
+    <t>iam_role_permission-39</t>
+  </si>
+  <si>
+    <t>iam_role_permission-40</t>
+  </si>
+  <si>
+    <t>iam_role_permission-41</t>
+  </si>
+  <si>
+    <t>iam_role_permission-42</t>
+  </si>
+  <si>
+    <t>iam_role_permission-43</t>
+  </si>
+  <si>
+    <t>iam_role_permission-44</t>
+  </si>
+  <si>
+    <t>iam_role_permission-45</t>
+  </si>
+  <si>
+    <t>iam_role_permission-46</t>
+  </si>
+  <si>
+    <t>iam_role_permission-47</t>
+  </si>
+  <si>
+    <t>iam_role_permission-48</t>
+  </si>
+  <si>
+    <t>iam_role_permission-49</t>
+  </si>
+  <si>
+    <t>iam_role_permission-50</t>
+  </si>
+  <si>
+    <t>iam_role_permission-51</t>
+  </si>
+  <si>
+    <t>iam_role_permission-52</t>
+  </si>
+  <si>
+    <t>iam_role_permission-53</t>
+  </si>
+  <si>
+    <t>iam_role_permission-54</t>
+  </si>
+  <si>
+    <t>iam_role_permission-55</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +3092,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="58">
+  <fonts count="77">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2989,6 +3323,41 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
     </font>
     <font>
@@ -3040,6 +3409,66 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3215,7 +3644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3322,6 +3751,25 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3948,13 +4396,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3966,10 +4414,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="56">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="57">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -3990,7 +4438,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="58">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4816,16 +5264,16 @@
       <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="D7" t="s" s="66">
         <v>150</v>
       </c>
-      <c r="E7" t="s" s="60">
+      <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="61">
+      <c r="F7" t="s" s="68">
         <v>151</v>
       </c>
-      <c r="G7" t="s" s="62">
+      <c r="G7" t="s" s="69">
         <v>152</v>
       </c>
     </row>
@@ -5350,16 +5798,16 @@
       <c r="C7" t="s">
         <v>224</v>
       </c>
-      <c r="D7" t="s" s="63">
+      <c r="D7" t="s" s="70">
         <v>225</v>
       </c>
-      <c r="E7" t="s" s="64">
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="65">
+      <c r="F7" t="s" s="72">
         <v>226</v>
       </c>
-      <c r="G7" t="s" s="66">
+      <c r="G7" t="s" s="73">
         <v>227</v>
       </c>
       <c r="H7" t="s">
@@ -5969,19 +6417,19 @@
       <c r="C28" t="s">
         <v>292</v>
       </c>
-      <c r="D28" t="s" s="67">
+      <c r="D28" t="s" s="74">
         <v>293</v>
       </c>
-      <c r="E28" t="s" s="68">
+      <c r="E28" t="s" s="75">
         <v>294</v>
       </c>
-      <c r="F28" t="s" s="69">
+      <c r="F28" t="s" s="76">
         <v>295</v>
       </c>
-      <c r="G28" t="s" s="70">
+      <c r="G28" t="s" s="77">
         <v>296</v>
       </c>
-      <c r="H28" t="s" s="71">
+      <c r="H28" t="s" s="78">
         <v>297</v>
       </c>
       <c r="I28" t="s">
@@ -6275,6 +6723,1352 @@
       </c>
       <c r="I45" t="s">
         <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="53">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="54">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="55">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="56">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="57">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="58">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s" s="79">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s" s="80">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="81">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" t="s" s="82">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M7" t="s" s="83">
+        <v>306</v>
+      </c>
+      <c r="N7" t="s" s="84">
+        <v>307</v>
+      </c>
+      <c r="O7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>310</v>
+      </c>
+      <c r="R7" t="s">
+        <v>311</v>
+      </c>
+      <c r="S7" t="s">
+        <v>312</v>
+      </c>
+      <c r="T7" t="s">
+        <v>313</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>314</v>
+      </c>
+      <c r="W7" t="s" s="85">
+        <v>315</v>
+      </c>
+      <c r="X7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" t="s">
+        <v>323</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" t="s">
+        <v>321</v>
+      </c>
+      <c r="V8" t="s">
+        <v>321</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" t="s">
+        <v>327</v>
+      </c>
+      <c r="V9" t="s">
+        <v>327</v>
+      </c>
+      <c r="W9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" t="s">
+        <v>333</v>
+      </c>
+      <c r="V10" t="s">
+        <v>334</v>
+      </c>
+      <c r="W10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" t="s">
+        <v>339</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" t="s">
+        <v>340</v>
+      </c>
+      <c r="V11" t="s">
+        <v>341</v>
+      </c>
+      <c r="W11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s">
+        <v>348</v>
+      </c>
+      <c r="V12" t="s">
+        <v>349</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" t="s">
+        <v>355</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" t="s">
+        <v>356</v>
+      </c>
+      <c r="V13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G14" t="s">
+        <v>362</v>
+      </c>
+      <c r="H14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J14" t="s">
+        <v>323</v>
+      </c>
+      <c r="K14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" t="s">
+        <v>363</v>
+      </c>
+      <c r="V14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" t="s" s="86">
+        <v>366</v>
+      </c>
+      <c r="E16" t="s" s="87">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s" s="88">
+        <v>367</v>
+      </c>
+      <c r="G16" t="s" s="89">
+        <v>368</v>
+      </c>
+      <c r="H16" t="s">
+        <v>369</v>
+      </c>
+      <c r="I16" t="s">
+        <v>370</v>
+      </c>
+      <c r="J16" t="s" s="90">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G17">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G18">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F19">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G19">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H19" t="s">
+        <v>372</v>
+      </c>
+      <c r="I19" t="s">
+        <v>373</v>
+      </c>
+      <c r="J19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H20" t="s">
+        <v>372</v>
+      </c>
+      <c r="I20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G21">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H21" t="s">
+        <v>372</v>
+      </c>
+      <c r="I21" t="s">
+        <v>373</v>
+      </c>
+      <c r="J21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H22" t="s">
+        <v>372</v>
+      </c>
+      <c r="I22" t="s">
+        <v>373</v>
+      </c>
+      <c r="J22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H23" t="s">
+        <v>372</v>
+      </c>
+      <c r="I23" t="s">
+        <v>373</v>
+      </c>
+      <c r="J23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H24" t="s">
+        <v>372</v>
+      </c>
+      <c r="I24" t="s">
+        <v>373</v>
+      </c>
+      <c r="J24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H25" t="s">
+        <v>372</v>
+      </c>
+      <c r="I25" t="s">
+        <v>373</v>
+      </c>
+      <c r="J25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H26" t="s">
+        <v>372</v>
+      </c>
+      <c r="I26" t="s">
+        <v>373</v>
+      </c>
+      <c r="J26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G27">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H27" t="s">
+        <v>372</v>
+      </c>
+      <c r="I27" t="s">
+        <v>373</v>
+      </c>
+      <c r="J27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G28">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H28" t="s">
+        <v>372</v>
+      </c>
+      <c r="I28" t="s">
+        <v>373</v>
+      </c>
+      <c r="J28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G29">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H29" t="s">
+        <v>372</v>
+      </c>
+      <c r="I29" t="s">
+        <v>373</v>
+      </c>
+      <c r="J29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G30">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H30" t="s">
+        <v>372</v>
+      </c>
+      <c r="I30" t="s">
+        <v>373</v>
+      </c>
+      <c r="J30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G31">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H31" t="s">
+        <v>372</v>
+      </c>
+      <c r="I31" t="s">
+        <v>373</v>
+      </c>
+      <c r="J31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>389</v>
+      </c>
+      <c r="F32">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G32">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H32" t="s">
+        <v>372</v>
+      </c>
+      <c r="I32" t="s">
+        <v>373</v>
+      </c>
+      <c r="J32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G33">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" t="s">
+        <v>373</v>
+      </c>
+      <c r="J33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G34">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H34" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G35">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H35" t="s">
+        <v>372</v>
+      </c>
+      <c r="I35" t="s">
+        <v>373</v>
+      </c>
+      <c r="J35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G36">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H36" t="s">
+        <v>372</v>
+      </c>
+      <c r="I36" t="s">
+        <v>373</v>
+      </c>
+      <c r="J36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G37">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H37" t="s">
+        <v>372</v>
+      </c>
+      <c r="I37" t="s">
+        <v>373</v>
+      </c>
+      <c r="J37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>395</v>
+      </c>
+      <c r="F38">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G38">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H38" t="s">
+        <v>372</v>
+      </c>
+      <c r="I38" t="s">
+        <v>373</v>
+      </c>
+      <c r="J38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F39">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H39" t="s">
+        <v>372</v>
+      </c>
+      <c r="I39" t="s">
+        <v>373</v>
+      </c>
+      <c r="J39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H40" t="s">
+        <v>372</v>
+      </c>
+      <c r="I40" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>398</v>
+      </c>
+      <c r="F41">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H41" t="s">
+        <v>372</v>
+      </c>
+      <c r="I41" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>400</v>
+      </c>
+      <c r="F43">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H43" t="s">
+        <v>372</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>401</v>
+      </c>
+      <c r="F44">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G44">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H44" t="s">
+        <v>372</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>402</v>
+      </c>
+      <c r="F45">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H45" t="s">
+        <v>372</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H46" t="s">
+        <v>372</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>404</v>
+      </c>
+      <c r="F47">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H47" t="s">
+        <v>372</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>405</v>
+      </c>
+      <c r="F48">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H48" t="s">
+        <v>372</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G49">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H49" t="s">
+        <v>372</v>
+      </c>
+      <c r="I49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>407</v>
+      </c>
+      <c r="F50">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G50">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H50" t="s">
+        <v>372</v>
+      </c>
+      <c r="I50" t="s">
+        <v>373</v>
+      </c>
+      <c r="J50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>408</v>
+      </c>
+      <c r="F51">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G51">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H51" t="s">
+        <v>372</v>
+      </c>
+      <c r="I51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>409</v>
+      </c>
+      <c r="F52">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G52">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H52" t="s">
+        <v>372</v>
+      </c>
+      <c r="I52" t="s">
+        <v>373</v>
+      </c>
+      <c r="J52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>410</v>
+      </c>
+      <c r="F53">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G53">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H53" t="s">
+        <v>372</v>
+      </c>
+      <c r="I53" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>411</v>
+      </c>
+      <c r="F54">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G54">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H54" t="s">
+        <v>372</v>
+      </c>
+      <c r="I54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>412</v>
+      </c>
+      <c r="F55">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G55">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H55" t="s">
+        <v>372</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="465">
   <si>
     <r>
       <rPr>
@@ -2076,28 +2076,40 @@
     <t>iam_menu-8</t>
   </si>
   <si>
-    <t>choerodon.code.project.operation</t>
-  </si>
-  <si>
-    <t>运营</t>
-  </si>
-  <si>
-    <t>YY</t>
+    <t>choerodon.code.project.operation.chart</t>
+  </si>
+  <si>
+    <t>图表</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
   <si>
     <t>organization</t>
   </si>
   <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>/charts</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart</t>
   </si>
   <si>
     <t>api</t>
@@ -2106,52 +2118,49 @@
     <t>iam_menu-9</t>
   </si>
   <si>
-    <t>choerodon.code.project.operation.chart</t>
-  </si>
-  <si>
-    <t>图表</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>poll</t>
-  </si>
-  <si>
-    <t>/charts</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart</t>
+    <t>choerodon.code.project.operation.chart.ps.build.duration</t>
+  </si>
+  <si>
+    <t>构建时长图</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.build.duration</t>
   </si>
   <si>
     <t>iam_menu-10</t>
   </si>
   <si>
+    <t>choerodon.code.project.operation.chart.ps.build.times</t>
+  </si>
+  <si>
+    <t>构建次数图</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.build.times</t>
+  </si>
+  <si>
+    <t>iam_menu-11</t>
+  </si>
+  <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.burndown</t>
   </si>
   <si>
     <t>燃尽图</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.burndown</t>
   </si>
   <si>
-    <t>iam_menu-11</t>
+    <t>iam_menu-12</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.cumulative_flow_diagram</t>
@@ -2163,7 +2172,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.cumulative_flow_diagram</t>
   </si>
   <si>
-    <t>iam_menu-12</t>
+    <t>iam_menu-13</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicburndown</t>
@@ -2175,7 +2184,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicburndown</t>
   </si>
   <si>
-    <t>iam_menu-13</t>
+    <t>iam_menu-14</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicreport</t>
@@ -2187,7 +2196,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicreport</t>
   </si>
   <si>
-    <t>iam_menu-14</t>
+    <t>iam_menu-15</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.excuteprogress</t>
@@ -2199,7 +2208,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.excuteprogress</t>
   </si>
   <si>
-    <t>iam_menu-15</t>
+    <t>iam_menu-16</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.piechart</t>
@@ -2211,7 +2220,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.piechart</t>
   </si>
   <si>
-    <t>iam_menu-16</t>
+    <t>iam_menu-17</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromdefect</t>
@@ -2223,7 +2232,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromdefect</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
+    <t>iam_menu-18</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromissue</t>
@@ -2235,7 +2244,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromissue</t>
   </si>
   <si>
-    <t>iam_menu-18</t>
+    <t>iam_menu-19</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.sprintreport</t>
@@ -2247,7 +2256,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.sprintreport</t>
   </si>
   <si>
-    <t>iam_menu-19</t>
+    <t>iam_menu-20</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.velocity_chart</t>
@@ -2259,7 +2268,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.velocity_chart</t>
   </si>
   <si>
-    <t>iam_menu-20</t>
+    <t>iam_menu-21</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionburndown</t>
@@ -2274,7 +2283,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionburndown</t>
   </si>
   <si>
-    <t>iam_menu-21</t>
+    <t>iam_menu-22</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionreport</t>
@@ -2283,7 +2292,19 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionreport</t>
   </si>
   <si>
-    <t>iam_menu-22</t>
+    <t>iam_menu-23</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.chart.ps.commit</t>
+  </si>
+  <si>
+    <t>代码提交图</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.commit</t>
+  </si>
+  <si>
+    <t>iam_menu-24</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.default</t>
@@ -2295,6 +2316,42 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.default</t>
   </si>
   <si>
+    <t>iam_menu-25</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.chart.ps.deploy.duration</t>
+  </si>
+  <si>
+    <t>部署时长图</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.deploy.duration</t>
+  </si>
+  <si>
+    <t>iam_menu-26</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.chart.ps.deploy.times</t>
+  </si>
+  <si>
+    <t>部署次数图</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.deploy.times</t>
+  </si>
+  <si>
+    <t>iam_menu-27</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.chart.ps.sonarqube</t>
+  </si>
+  <si>
+    <t>代码质量图</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.sonarqube</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2520,6 +2577,105 @@
     <t>test-manager-service.test-plan.allPlan</t>
   </si>
   <si>
+    <t>iam_menu_permission-51</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByActive</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-52</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getCommits</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.getSonarQubeTable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-60</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-61</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-62</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listDeployTimeReport</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-63</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.pageDeployTimeTable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-64</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByEnvIdAndStatus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-65</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listByActive</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-66</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-67</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-68</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listAll</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-69</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2709,19 +2865,19 @@
     <t>iam_label-25</t>
   </si>
   <si>
-    <t>TEST_SERVICE</t>
+    <t>KNOWLEDGEBASE_SERVICE</t>
+  </si>
+  <si>
+    <t>知识服务菜单</t>
+  </si>
+  <si>
+    <t>iam_label-26</t>
+  </si>
+  <si>
+    <t>TEST_MANAGER_SERVICE</t>
   </si>
   <si>
     <t>测试服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-26</t>
-  </si>
-  <si>
-    <t>KNOWLWDGE_SERVICE</t>
-  </si>
-  <si>
-    <t>知识服务菜单</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -4355,7 +4511,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4494,20 +4650,26 @@
       <c r="N8" t="s">
         <v>83</v>
       </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
         <v>83</v>
@@ -4515,19 +4677,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -4536,34 +4698,28 @@
         <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
         <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
         <v>83</v>
@@ -4571,49 +4727,49 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
       </c>
       <c r="K10">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
         <v>83</v>
       </c>
       <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>100</v>
-      </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
         <v>83</v>
@@ -4621,49 +4777,49 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
         <v>101</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
       </c>
       <c r="K11">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X11" t="s">
         <v>83</v>
@@ -4671,49 +4827,49 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
       </c>
       <c r="K12">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X12" t="s">
         <v>83</v>
@@ -4721,49 +4877,49 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
         <v>109</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
       </c>
       <c r="K13">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
         <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X13" t="s">
         <v>83</v>
@@ -4771,49 +4927,49 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
         <v>113</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>114</v>
       </c>
-      <c r="G14" t="s">
-        <v>115</v>
-      </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
       </c>
       <c r="K14">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X14" t="s">
         <v>83</v>
@@ -4821,49 +4977,49 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>118</v>
       </c>
-      <c r="G15" t="s">
-        <v>119</v>
-      </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
       </c>
       <c r="K15">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N15" t="s">
         <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X15" t="s">
         <v>83</v>
@@ -4871,49 +5027,49 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>122</v>
       </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
         <v>79</v>
       </c>
       <c r="K16">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s">
         <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X16" t="s">
         <v>83</v>
@@ -4921,49 +5077,49 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
         <v>125</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>126</v>
       </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
         <v>79</v>
       </c>
       <c r="K17">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s">
         <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X17" t="s">
         <v>83</v>
@@ -4971,49 +5127,49 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
         <v>129</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>130</v>
       </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
       </c>
       <c r="K18">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N18" t="s">
         <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X18" t="s">
         <v>83</v>
@@ -5021,49 +5177,49 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
         <v>133</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>134</v>
       </c>
-      <c r="G19" t="s">
-        <v>135</v>
-      </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
       </c>
       <c r="K19">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s">
         <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X19" t="s">
         <v>83</v>
@@ -5071,49 +5227,49 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
         <v>137</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>138</v>
       </c>
-      <c r="G20" t="s">
-        <v>139</v>
-      </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
       </c>
       <c r="K20">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
         <v>83</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X20" t="s">
         <v>83</v>
@@ -5121,49 +5277,49 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
         <v>142</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>143</v>
       </c>
-      <c r="G21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" t="s">
-        <v>140</v>
-      </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
       </c>
       <c r="K21">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s">
         <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S21" t="s">
         <v>144</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X21" t="s">
         <v>83</v>
@@ -5177,42 +5333,292 @@
         <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
       </c>
       <c r="J22" t="s">
         <v>79</v>
       </c>
       <c r="K22">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L22" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
         <v>83</v>
       </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
       <c r="Q22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S22" t="s">
+        <v>147</v>
+      </c>
+      <c r="T22" t="s">
+        <v>86</v>
+      </c>
+      <c r="V22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
         <v>148</v>
       </c>
-      <c r="T22" t="s">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s">
-        <v>84</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="L23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" t="s">
+        <v>151</v>
+      </c>
+      <c r="T23" t="s">
+        <v>86</v>
+      </c>
+      <c r="V23" t="s">
+        <v>88</v>
+      </c>
+      <c r="X23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="L24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" t="s">
+        <v>155</v>
+      </c>
+      <c r="T24" t="s">
+        <v>86</v>
+      </c>
+      <c r="V24" t="s">
+        <v>88</v>
+      </c>
+      <c r="X24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" t="s">
+        <v>159</v>
+      </c>
+      <c r="T25" t="s">
+        <v>86</v>
+      </c>
+      <c r="V25" t="s">
+        <v>88</v>
+      </c>
+      <c r="X25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" t="s">
+        <v>163</v>
+      </c>
+      <c r="T26" t="s">
+        <v>86</v>
+      </c>
+      <c r="V26" t="s">
+        <v>88</v>
+      </c>
+      <c r="X26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="L27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" t="s">
+        <v>167</v>
+      </c>
+      <c r="T27" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" t="s">
+        <v>88</v>
+      </c>
+      <c r="X27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5223,7 +5629,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5262,492 +5668,701 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F8">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F9">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F10">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F11">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F12">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F13">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F14">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F15">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F16">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F17">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F18">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F19">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F20">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F21">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F22">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F23">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G23" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F24">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F25">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F26">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F27">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F28">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G28" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F29">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F30">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F31">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F32">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F33">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F34">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F35">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="G35" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F36">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F37">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F38">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F39">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F40">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F41">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F42">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F43">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F44">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G44" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F45">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G45" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F46">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="F47">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="G47" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F48">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F49">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="G49" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F50">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="G51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="G52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="G53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="G56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="G57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>255</v>
+      </c>
+      <c r="F58">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="G58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="G59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>258</v>
+      </c>
+      <c r="F60">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="G60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="G61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="G62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="G63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="G64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="G65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="G66" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="G67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="G68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="G69" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5757,7 +6372,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5796,66 +6411,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="72">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s" s="73">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="I7" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="J7" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="L7" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="N7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="O7" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J8" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="K8" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -5869,25 +6484,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J9" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -5901,19 +6516,19 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -5927,25 +6542,25 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
         <v>83</v>
@@ -5953,25 +6568,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J12" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="K12" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -5985,28 +6600,28 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J13" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
         <v>83</v>
@@ -6014,28 +6629,28 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J14" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
         <v>83</v>
@@ -6043,28 +6658,28 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O15" t="s">
         <v>83</v>
@@ -6072,28 +6687,28 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J16" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O16" t="s">
         <v>83</v>
@@ -6101,31 +6716,31 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J17" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O17" t="s">
         <v>83</v>
@@ -6133,31 +6748,31 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J18" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="K18" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O18" t="s">
         <v>83</v>
@@ -6165,25 +6780,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="J19" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="K19" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -6197,25 +6812,25 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="F20" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O20" t="s">
         <v>83</v>
@@ -6223,31 +6838,31 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J21" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="K21" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O21" t="s">
         <v>83</v>
@@ -6255,31 +6870,31 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="F22" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="G22" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J22" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="K22" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O22" t="s">
         <v>83</v>
@@ -6287,31 +6902,31 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="F23" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J23" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="K23" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O23" t="s">
         <v>83</v>
@@ -6319,25 +6934,25 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="F24" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="G24" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O24" t="s">
         <v>83</v>
@@ -6345,31 +6960,28 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="G25" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J25" t="s">
-        <v>288</v>
-      </c>
-      <c r="K25" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O25" t="s">
         <v>83</v>
@@ -6377,31 +6989,28 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="F26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" t="s">
         <v>290</v>
       </c>
-      <c r="G26" t="s">
-        <v>238</v>
-      </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J26" t="s">
-        <v>291</v>
-      </c>
-      <c r="K26" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O26" t="s">
         <v>83</v>
@@ -6415,33 +7024,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="D28" t="s" s="74">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="E28" t="s" s="75">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="F28" t="s" s="76">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="G28" t="s" s="77">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H28" t="s" s="78">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I28" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G29">
         <f>菜单SAAS版!$E$8</f>
@@ -6450,15 +7059,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G30">
         <f>菜单SAAS版!$E$8</f>
@@ -6467,262 +7076,126 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G31">
         <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H31">
-        <f>菜单标签数据!$E$15</f>
+        <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G32">
         <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H32">
-        <f>菜单标签数据!$E$16</f>
+        <f>菜单标签数据!$E$21</f>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G33">
         <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H33">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单标签数据!$E$24</f>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G34">
         <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H34">
-        <f>菜单标签数据!$E$21</f>
+        <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G35">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H35">
-        <f>菜单标签数据!$E$24</f>
+        <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G36">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H36">
-        <f>菜单标签数据!$E$25</f>
+        <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G37">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H37">
-        <f>菜单标签数据!$E$13</f>
+        <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>299</v>
-      </c>
-      <c r="F38" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H38">
-        <f>菜单标签数据!$E$14</f>
-      </c>
-      <c r="I38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H39">
-        <f>菜单标签数据!$E$17</f>
-      </c>
-      <c r="I39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>299</v>
-      </c>
-      <c r="F40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H40">
-        <f>菜单标签数据!$E$21</f>
-      </c>
-      <c r="I40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F41" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H41">
-        <f>菜单标签数据!$E$24</f>
-      </c>
-      <c r="I41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H42">
-        <f>菜单标签数据!$E$25</f>
-      </c>
-      <c r="I42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>299</v>
-      </c>
-      <c r="F43" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="H43">
-        <f>菜单标签数据!$E$13</f>
-      </c>
-      <c r="I43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="H44">
-        <f>菜单标签数据!$E$14</f>
-      </c>
-      <c r="I44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>299</v>
-      </c>
-      <c r="F45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="H45">
-        <f>菜单标签数据!$E$17</f>
-      </c>
-      <c r="I45" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6771,10 +7244,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s" s="79">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s" s="80">
         <v>54</v>
@@ -6789,96 +7262,96 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="K7" t="s" s="82">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="M7" t="s" s="83">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="N7" t="s" s="84">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="O7" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="P7" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="Q7" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="R7" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="S7" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="T7" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="W7" t="s" s="85">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="X7" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="Y7" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="G8" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="I8" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
         <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R8" t="s">
         <v>83</v>
@@ -6887,57 +7360,57 @@
         <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U8" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="V8" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="G9" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N9" t="s">
         <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
         <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R9" t="s">
         <v>83</v>
@@ -6946,39 +7419,39 @@
         <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U9" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="V9" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="W9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="H10" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M10">
         <f>角色!$E$9</f>
@@ -6987,13 +7460,13 @@
         <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
         <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
         <v>83</v>
@@ -7002,45 +7475,45 @@
         <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U10" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="V10" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X10" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="Y10" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="G11" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M11">
         <f>角色!$E$9</f>
@@ -7049,13 +7522,13 @@
         <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
         <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
         <v>83</v>
@@ -7064,45 +7537,45 @@
         <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="V11" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="W11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X11" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="Y11" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="H12" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M12">
         <f>角色!$E$9</f>
@@ -7111,13 +7584,13 @@
         <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R12" t="s">
         <v>83</v>
@@ -7126,45 +7599,45 @@
         <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U12" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="V12" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X12" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="Y12" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="H13" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M13">
         <f>角色!$E$9</f>
@@ -7173,13 +7646,13 @@
         <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
         <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R13" t="s">
         <v>83</v>
@@ -7188,60 +7661,60 @@
         <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U13" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="V13" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X13" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="Y13" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="F14" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="G14" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="H14" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="J14" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
         <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
         <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R14" t="s">
         <v>83</v>
@@ -7250,13 +7723,13 @@
         <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="V14" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16">
@@ -7267,808 +7740,808 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="D16" t="s" s="86">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="E16" t="s" s="87">
         <v>54</v>
       </c>
       <c r="F16" t="s" s="88">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="G16" t="s" s="89">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="H16" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="I16" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="J16" t="s" s="90">
-        <v>227</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="F17">
         <f>角色!$E$10</f>
       </c>
       <c r="G17">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H17" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I17" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J17" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="F18">
         <f>角色!$E$10</f>
       </c>
       <c r="G18">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H18" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I18" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J18" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="F19">
         <f>角色!$E$10</f>
       </c>
       <c r="G19">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H19" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I19" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J19" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="F20">
         <f>角色!$E$10</f>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H20" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I20" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J20" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="F21">
         <f>角色!$E$10</f>
       </c>
       <c r="G21">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H21" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I21" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J21" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="F22">
         <f>角色!$E$10</f>
       </c>
       <c r="G22">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H22" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I22" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J22" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="F23">
         <f>角色!$E$10</f>
       </c>
       <c r="G23">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H23" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I23" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J23" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="F24">
         <f>角色!$E$10</f>
       </c>
       <c r="G24">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I24" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J24" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="F25">
         <f>角色!$E$10</f>
       </c>
       <c r="G25">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I25" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J25" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="F26">
         <f>角色!$E$10</f>
       </c>
       <c r="G26">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H26" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I26" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J26" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="F27">
         <f>角色!$E$10</f>
       </c>
       <c r="G27">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I27" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J27" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="F28">
         <f>角色!$E$10</f>
       </c>
       <c r="G28">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H28" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I28" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J28" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="F29">
         <f>角色!$E$10</f>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H29" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I29" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J29" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="F30">
         <f>角色!$E$12</f>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H30" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I30" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J30" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="F31">
         <f>角色!$E$12</f>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H31" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I31" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J31" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="F32">
         <f>角色!$E$12</f>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H32" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I32" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J32" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="F33">
         <f>角色!$E$12</f>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H33" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I33" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J33" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="F34">
         <f>角色!$E$12</f>
       </c>
       <c r="G34">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I34" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J34" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="F35">
         <f>角色!$E$12</f>
       </c>
       <c r="G35">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H35" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I35" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J35" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="F36">
         <f>角色!$E$12</f>
       </c>
       <c r="G36">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H36" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I36" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J36" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="F37">
         <f>角色!$E$12</f>
       </c>
       <c r="G37">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H37" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I37" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J37" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="F38">
         <f>角色!$E$12</f>
       </c>
       <c r="G38">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H38" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I38" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J38" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="F39">
         <f>角色!$E$12</f>
       </c>
       <c r="G39">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H39" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J39" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="F40">
         <f>角色!$E$12</f>
       </c>
       <c r="G40">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H40" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="F41">
         <f>角色!$E$12</f>
       </c>
       <c r="G41">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H41" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="F42">
         <f>角色!$E$12</f>
       </c>
       <c r="G42">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H42" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="F43">
         <f>角色!$E$13</f>
       </c>
       <c r="G43">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H43" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J43" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="F44">
         <f>角色!$E$13</f>
       </c>
       <c r="G44">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H44" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="F45">
         <f>角色!$E$13</f>
       </c>
       <c r="G45">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H45" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="F46">
         <f>角色!$E$13</f>
       </c>
       <c r="G46">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H46" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="F47">
         <f>角色!$E$13</f>
       </c>
       <c r="G47">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H47" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="F48">
         <f>角色!$E$13</f>
       </c>
       <c r="G48">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H48" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I48" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J48" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F49">
         <f>角色!$E$13</f>
       </c>
       <c r="G49">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H49" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J49" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="F50">
         <f>角色!$E$13</f>
       </c>
       <c r="G50">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H50" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I50" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J50" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="F51">
         <f>角色!$E$13</f>
       </c>
       <c r="G51">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H51" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I51" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J51" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="F52">
         <f>角色!$E$13</f>
       </c>
       <c r="G52">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H52" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I52" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J52" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="F53">
         <f>角色!$E$13</f>
       </c>
       <c r="G53">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I53" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J53" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="F54">
         <f>角色!$E$13</f>
       </c>
       <c r="G54">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H54" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I54" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J54" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="F55">
         <f>角色!$E$13</f>
       </c>
       <c r="G55">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I55" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -17,6 +17,7 @@
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
     <sheet name="角色" r:id="rId8" sheetId="5"/>
+    <sheet name="角色标签数据" r:id="rId9" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="729">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1999,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-01</t>
+    <t>2020-06-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2076,6 +2077,36 @@
     <t>iam_menu-8</t>
   </si>
   <si>
+    <t>choerodon.code.project.operation</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>iam_menu-9</t>
+  </si>
+  <si>
     <t>choerodon.code.project.operation.chart</t>
   </si>
   <si>
@@ -2085,37 +2116,22 @@
     <t>TB</t>
   </si>
   <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
     <t>menu</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>poll</t>
   </si>
   <si>
     <t>/charts</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart</t>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>iam_menu-9</t>
+    <t>iam_menu-10</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.build.duration</t>
@@ -2136,7 +2152,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.build.duration</t>
   </si>
   <si>
-    <t>iam_menu-10</t>
+    <t>iam_menu-11</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.build.times</t>
@@ -2148,7 +2164,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.build.times</t>
   </si>
   <si>
-    <t>iam_menu-11</t>
+    <t>iam_menu-12</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.burndown</t>
@@ -2160,7 +2176,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.burndown</t>
   </si>
   <si>
-    <t>iam_menu-12</t>
+    <t>iam_menu-13</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.cumulative_flow_diagram</t>
@@ -2172,7 +2188,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.cumulative_flow_diagram</t>
   </si>
   <si>
-    <t>iam_menu-13</t>
+    <t>iam_menu-14</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicburndown</t>
@@ -2184,7 +2200,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicburndown</t>
   </si>
   <si>
-    <t>iam_menu-14</t>
+    <t>iam_menu-15</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicreport</t>
@@ -2196,7 +2212,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicreport</t>
   </si>
   <si>
-    <t>iam_menu-15</t>
+    <t>iam_menu-16</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.excuteprogress</t>
@@ -2208,7 +2224,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.excuteprogress</t>
   </si>
   <si>
-    <t>iam_menu-16</t>
+    <t>iam_menu-17</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.piechart</t>
@@ -2220,7 +2236,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.piechart</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
+    <t>iam_menu-18</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromdefect</t>
@@ -2232,7 +2248,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromdefect</t>
   </si>
   <si>
-    <t>iam_menu-18</t>
+    <t>iam_menu-19</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromissue</t>
@@ -2244,7 +2260,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromissue</t>
   </si>
   <si>
-    <t>iam_menu-19</t>
+    <t>iam_menu-20</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.sprintreport</t>
@@ -2256,7 +2272,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.sprintreport</t>
   </si>
   <si>
-    <t>iam_menu-20</t>
+    <t>iam_menu-21</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.velocity_chart</t>
@@ -2268,7 +2284,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.velocity_chart</t>
   </si>
   <si>
-    <t>iam_menu-21</t>
+    <t>iam_menu-22</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionburndown</t>
@@ -2283,7 +2299,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionburndown</t>
   </si>
   <si>
-    <t>iam_menu-22</t>
+    <t>iam_menu-23</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionreport</t>
@@ -2292,7 +2308,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionreport</t>
   </si>
   <si>
-    <t>iam_menu-23</t>
+    <t>iam_menu-24</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.commit</t>
@@ -2304,7 +2320,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.commit</t>
   </si>
   <si>
-    <t>iam_menu-24</t>
+    <t>iam_menu-25</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.default</t>
@@ -2316,7 +2332,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-25</t>
+    <t>iam_menu-26</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.deploy.duration</t>
@@ -2328,7 +2344,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.deploy.duration</t>
   </si>
   <si>
-    <t>iam_menu-26</t>
+    <t>iam_menu-27</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.deploy.times</t>
@@ -2340,7 +2356,7 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.deploy.times</t>
   </si>
   <si>
-    <t>iam_menu-27</t>
+    <t>iam_menu-28</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.chart.ps.sonarqube</t>
@@ -2352,6 +2368,168 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.sonarqube</t>
   </si>
   <si>
+    <t>iam_menu-29</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>iam_menu-30</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>assignment_turned_in</t>
+  </si>
+  <si>
+    <t>/testManager/status</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.test</t>
+  </si>
+  <si>
+    <t>iam_menu-31</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.test.ps.default</t>
+  </si>
+  <si>
+    <t>测试默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.test|choerodon.code.project.setting.test.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-32</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>iam_menu-33</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.autotest</t>
+  </si>
+  <si>
+    <t>自动化</t>
+  </si>
+  <si>
+    <t>ZDH</t>
+  </si>
+  <si>
+    <t>format_shapes</t>
+  </si>
+  <si>
+    <t>/testManager/AutoTest/list</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.autotest</t>
+  </si>
+  <si>
+    <t>iam_menu-34</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.autotest.ps.default</t>
+  </si>
+  <si>
+    <t>自动化默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.autotest|choerodon.code.project.test.autotest.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-35</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.manager</t>
+  </si>
+  <si>
+    <t>用例库</t>
+  </si>
+  <si>
+    <t>YLK</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>/testManager/IssueManage</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.manager</t>
+  </si>
+  <si>
+    <t>iam_menu-36</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.manager.ps.default</t>
+  </si>
+  <si>
+    <t>用例库默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.manager|choerodon.code.project.test.manager.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-37</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.test-plan</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>insert_invitation</t>
+  </si>
+  <si>
+    <t>/testManager/TestPlan</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.test-plan</t>
+  </si>
+  <si>
+    <t>iam_menu-38</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.test-plan.ps.default</t>
+  </si>
+  <si>
+    <t>计划默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.test-plan|choerodon.code.project.test.test-plan.ps.default</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2373,307 +2551,796 @@
     <t>iam_menu_permission-9</t>
   </si>
   <si>
+    <t>test-manager-service.test-status.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.insert</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.formatValue</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-version.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-15</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.pageCluster</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listDevopsClusters</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.deploy</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.deployBySchedule</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.queryValues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-21</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-history.queryLog</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-history.queryWithInstance</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-23</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-result.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-24</t>
+  </si>
+  <si>
+    <t>agile-service.issue.queryIssueByOptionForAgile</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-25</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.removeAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.uploadFile</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-attachment.deleteAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-attachment.uploadAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-data-log.queryByCaseId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-30</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-link.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-31</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-link.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-link.queryLinkIssues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.changeOneStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.clone</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-35</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.removeStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchCloneCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-38</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchMoveCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.createTestCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.deleteCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downLoadByFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downloadImportTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.importIssues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-44</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.listCaseByFolderId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.updateCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-47</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.cancelUpLoad</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-48</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryIssues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-49</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-50</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-51</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-52</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.moveFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
+  </si>
+  <si>
+    <t>agile-service.issue-attachment.uploadForAddress</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-60</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-61</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-62</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-63</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-64</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-history.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-65</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.querySubStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-66</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-67</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.batchAssignCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-68</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-69</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-70</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.importCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-71</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-72</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-73</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-74</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-75</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-76</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-77</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-78</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCompare</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-79</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-80</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.insert</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-81</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.moveFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-82</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.operatePlanCalendar</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-83</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.queryTree</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-84</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-85</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-86</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.clonePlan</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-87</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-88</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.deletePlan</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-89</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-90</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryInfo</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-91</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryTree</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-92</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-93</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.updateStatus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-94</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-95</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinate</t>
   </si>
   <si>
-    <t>iam_menu_permission-10</t>
+    <t>iam_menu_permission-96</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReportByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-11</t>
-  </si>
-  <si>
-    <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-12</t>
+    <t>iam_menu_permission-97</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-98</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-13</t>
+    <t>iam_menu_permission-99</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNonWorkdays</t>
   </si>
   <si>
-    <t>iam_menu_permission-14</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-15</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-16</t>
+    <t>iam_menu_permission-100</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-101</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-102</t>
   </si>
   <si>
     <t>agile-service.sprint.queryIssueByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-17</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-18</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-19</t>
+    <t>iam_menu_permission-103</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-104</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-105</t>
   </si>
   <si>
     <t>agile-service.sprint.querySprintById</t>
   </si>
   <si>
-    <t>iam_menu_permission-20</t>
+    <t>iam_menu_permission-106</t>
   </si>
   <si>
     <t>agile-service.board.queryByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
+    <t>iam_menu_permission-107</t>
   </si>
   <si>
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
+    <t>iam_menu_permission-108</t>
   </si>
   <si>
     <t>agile-service.project-info.queryProjectInfoByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-23</t>
+    <t>iam_menu_permission-109</t>
   </si>
   <si>
     <t>agile-service.quick-filter.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-110</t>
   </si>
   <si>
     <t>agile-service.report.queryCumulativeFlowDiagram</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-111</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-112</t>
   </si>
   <si>
     <t>agile-service.product-version.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-113</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
+    <t>iam_menu_permission-114</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-29</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-30</t>
+    <t>iam_menu_permission-115</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-116</t>
   </si>
   <si>
     <t>agile-service.report.queryVelocityChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-31</t>
+    <t>iam_menu_permission-117</t>
   </si>
   <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
-    <t>iam_menu_permission-32</t>
+    <t>iam_menu_permission-118</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-33</t>
+    <t>iam_menu_permission-119</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-34</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-35</t>
+    <t>iam_menu_permission-120</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-121</t>
   </si>
   <si>
     <t>agile-service.report.queryPieChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-36</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-37</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-38</t>
+    <t>iam_menu_permission-122</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-123</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-124</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownCoordinateByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-39</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-40</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-41</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-42</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
+    <t>iam_menu_permission-125</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-126</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-127</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-128</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-129</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-130</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-45</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-46</t>
+    <t>iam_menu_permission-131</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-132</t>
   </si>
   <si>
     <t>agile-service.scheme.queryStatusByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-47</t>
+    <t>iam_menu_permission-133</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssue</t>
   </si>
   <si>
-    <t>iam_menu_permission-48</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-49</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-50</t>
+    <t>iam_menu_permission-134</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-135</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-136</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.allPlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-51</t>
+    <t>iam_menu_permission-137</t>
   </si>
   <si>
     <t>devops-service.app-service.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-52</t>
+    <t>iam_menu_permission-138</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-53</t>
+    <t>iam_menu_permission-139</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-54</t>
+    <t>iam_menu_permission-140</t>
   </si>
   <si>
     <t>devops-service.app-service.getSonarQubeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-55</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-56</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-57</t>
+    <t>iam_menu_permission-141</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-142</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-143</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
+    <t>iam_menu_permission-144</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-59</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-60</t>
+    <t>iam_menu_permission-145</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-146</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
   </si>
   <si>
-    <t>iam_menu_permission-61</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-62</t>
+    <t>iam_menu_permission-147</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-148</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployTimeReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-63</t>
+    <t>iam_menu_permission-149</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployTimeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-64</t>
+    <t>iam_menu_permission-150</t>
   </si>
   <si>
     <t>devops-service.app-service.listByEnvIdAndStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-65</t>
+    <t>iam_menu_permission-151</t>
   </si>
   <si>
     <t>devops-service.devops-environment.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-66</t>
+    <t>iam_menu_permission-152</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-67</t>
+    <t>iam_menu_permission-153</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-68</t>
+    <t>iam_menu_permission-154</t>
   </si>
   <si>
     <t>devops-service.app-service.listAll</t>
   </si>
   <si>
-    <t>iam_menu_permission-69</t>
+    <t>iam_menu_permission-155</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2916,9 +3583,6 @@
     <t>iam_role</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>h_inherit_role_id</t>
   </si>
   <si>
@@ -3241,6 +3905,135 @@
   </si>
   <si>
     <t>iam_role_permission-55</t>
+  </si>
+  <si>
+    <t>iam_role_permission-56</t>
+  </si>
+  <si>
+    <t>iam_role_permission-57</t>
+  </si>
+  <si>
+    <t>iam_role_permission-58</t>
+  </si>
+  <si>
+    <t>iam_role_permission-59</t>
+  </si>
+  <si>
+    <t>iam_role_permission-60</t>
+  </si>
+  <si>
+    <t>iam_role_permission-61</t>
+  </si>
+  <si>
+    <t>iam_role_permission-62</t>
+  </si>
+  <si>
+    <t>iam_role_permission-63</t>
+  </si>
+  <si>
+    <t>iam_role_permission-64</t>
+  </si>
+  <si>
+    <t>iam_role_permission-65</t>
+  </si>
+  <si>
+    <t>iam_role_permission-66</t>
+  </si>
+  <si>
+    <t>iam_role_permission-67</t>
+  </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
+    <t>标识内置模板角色</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE</t>
+  </si>
+  <si>
+    <t>标识租户层角色</t>
+  </si>
+  <si>
+    <t>Tenant Role</t>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识租户管理员角色</t>
+  </si>
+  <si>
+    <t>PROJECT_ROLE</t>
+  </si>
+  <si>
+    <t>标识项目层角色</t>
+  </si>
+  <si>
+    <t>Project Role</t>
+  </si>
+  <si>
+    <t>PROJECT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识项目管理员角色</t>
+  </si>
+  <si>
+    <t>TENANT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识租户成员角色</t>
+  </si>
+  <si>
+    <t>Tenant Member</t>
+  </si>
+  <si>
+    <t>PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识项目成员角色</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>TENANT_TPL</t>
+  </si>
+  <si>
+    <t>租户管理员模板标签</t>
+  </si>
+  <si>
+    <t>Tenant Template Label</t>
+  </si>
+  <si>
+    <t>GITLAB_OWNER</t>
+  </si>
+  <si>
+    <t>标识gitlab_owner</t>
+  </si>
+  <si>
+    <t>GITLAB_DEVELOPER</t>
+  </si>
+  <si>
+    <t>标识gitlab_developer</t>
   </si>
 </sst>
 </file>
@@ -3248,7 +4041,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="93">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3365,6 +4158,41 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3661,6 +4489,51 @@
       <sz val="11.0"/>
       <color indexed="48"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3800,7 +4673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3926,6 +4799,22 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4511,7 +5400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4552,13 +5441,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="60">
+      <c r="D7" t="s" s="67">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="61">
+      <c r="E7" t="s" s="68">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="62">
+      <c r="F7" t="s" s="69">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4570,10 +5459,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="63">
+      <c r="J7" t="s" s="70">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K7" t="s" s="71">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4594,7 +5483,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="65">
+      <c r="R7" t="s" s="72">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4650,26 +5539,20 @@
       <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" t="s">
         <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>86</v>
-      </c>
-      <c r="R8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" t="s">
-        <v>87</v>
-      </c>
-      <c r="T8" t="s">
-        <v>86</v>
-      </c>
-      <c r="V8" t="s">
-        <v>88</v>
       </c>
       <c r="X8" t="s">
         <v>83</v>
@@ -4677,19 +5560,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -4698,28 +5581,34 @@
         <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" t="s">
-        <v>95</v>
-      </c>
       <c r="T9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
         <v>83</v>
@@ -4727,49 +5616,49 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
         <v>97</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>92</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
       </c>
       <c r="K10">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
         <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s">
         <v>83</v>
@@ -4777,49 +5666,49 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
       </c>
       <c r="K11">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X11" t="s">
         <v>83</v>
@@ -4827,49 +5716,49 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
       </c>
       <c r="K12">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X12" t="s">
         <v>83</v>
@@ -4877,49 +5766,49 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
       </c>
       <c r="K13">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
         <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X13" t="s">
         <v>83</v>
@@ -4927,49 +5816,49 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
       </c>
       <c r="K14">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s">
         <v>83</v>
@@ -4977,49 +5866,49 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
       </c>
       <c r="K15">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
         <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
         <v>83</v>
@@ -5027,49 +5916,49 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
         <v>79</v>
       </c>
       <c r="K16">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
         <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s">
         <v>83</v>
@@ -5077,49 +5966,49 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
         <v>79</v>
       </c>
       <c r="K17">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
         <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X17" t="s">
         <v>83</v>
@@ -5127,49 +6016,49 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
       </c>
       <c r="K18">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
         <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X18" t="s">
         <v>83</v>
@@ -5177,49 +6066,49 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
       </c>
       <c r="K19">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
         <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>83</v>
@@ -5227,49 +6116,49 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
       </c>
       <c r="K20">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
         <v>83</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
         <v>83</v>
@@ -5277,49 +6166,49 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
         <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
       </c>
       <c r="K21">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s">
         <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s">
         <v>144</v>
       </c>
       <c r="T21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X21" t="s">
         <v>83</v>
@@ -5333,43 +6222,43 @@
         <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
         <v>79</v>
       </c>
       <c r="K22">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
         <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X22" t="s">
         <v>83</v>
@@ -5377,49 +6266,49 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
         <v>148</v>
       </c>
-      <c r="F23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" t="s">
-        <v>150</v>
-      </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J23" t="s">
         <v>79</v>
       </c>
       <c r="K23">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N23" t="s">
         <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X23" t="s">
         <v>83</v>
@@ -5427,46 +6316,49 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="I24" t="s">
+        <v>97</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
       </c>
       <c r="K24">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L24" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="N24" t="s">
         <v>83</v>
       </c>
+      <c r="O24" t="s">
+        <v>99</v>
+      </c>
       <c r="Q24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X24" t="s">
         <v>83</v>
@@ -5474,49 +6366,46 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
         <v>79</v>
       </c>
       <c r="K25">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L25" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
       </c>
       <c r="N25" t="s">
         <v>83</v>
       </c>
-      <c r="O25" t="s">
-        <v>94</v>
-      </c>
       <c r="Q25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>83</v>
@@ -5524,49 +6413,49 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
         <v>79</v>
       </c>
       <c r="K26">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
         <v>83</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X26" t="s">
         <v>83</v>
@@ -5574,51 +6463,613 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
         <v>79</v>
       </c>
       <c r="K27">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
         <v>83</v>
       </c>
       <c r="O27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="L28" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28" t="s">
+        <v>172</v>
+      </c>
+      <c r="T28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" t="s">
+        <v>174</v>
+      </c>
+      <c r="T29" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="L30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" t="s">
+        <v>183</v>
+      </c>
+      <c r="P30" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s">
+        <v>185</v>
+      </c>
+      <c r="T30" t="s">
+        <v>80</v>
+      </c>
+      <c r="V30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="L31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" t="s">
+        <v>80</v>
+      </c>
+      <c r="S31" t="s">
+        <v>189</v>
+      </c>
+      <c r="T31" t="s">
+        <v>80</v>
+      </c>
+      <c r="V31" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" t="s">
+        <v>192</v>
+      </c>
+      <c r="N32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s">
+        <v>191</v>
+      </c>
+      <c r="T32" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" t="s">
+        <v>84</v>
+      </c>
+      <c r="X32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="L33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" t="s">
+        <v>197</v>
+      </c>
+      <c r="P33" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33" t="s">
+        <v>199</v>
+      </c>
+      <c r="T33" t="s">
+        <v>80</v>
+      </c>
+      <c r="V33" t="s">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="L34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>80</v>
+      </c>
+      <c r="R34" t="s">
+        <v>80</v>
+      </c>
+      <c r="S34" t="s">
+        <v>203</v>
+      </c>
+      <c r="T34" t="s">
+        <v>80</v>
+      </c>
+      <c r="V34" t="s">
+        <v>84</v>
+      </c>
+      <c r="X34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="L35" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" t="s">
+        <v>90</v>
+      </c>
+      <c r="N35" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" t="s">
+        <v>208</v>
+      </c>
+      <c r="P35" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>80</v>
+      </c>
+      <c r="R35" t="s">
+        <v>80</v>
+      </c>
+      <c r="S35" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" t="s">
+        <v>80</v>
+      </c>
+      <c r="V35" t="s">
+        <v>84</v>
+      </c>
+      <c r="X35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <f>菜单SAAS版!$E$35</f>
+      </c>
+      <c r="L36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" t="s">
+        <v>80</v>
+      </c>
+      <c r="S36" t="s">
+        <v>214</v>
+      </c>
+      <c r="T36" t="s">
+        <v>80</v>
+      </c>
+      <c r="V36" t="s">
+        <v>84</v>
+      </c>
+      <c r="X36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="L37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" t="s">
+        <v>219</v>
+      </c>
+      <c r="N37" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>80</v>
+      </c>
+      <c r="R37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S37" t="s">
+        <v>222</v>
+      </c>
+      <c r="T37" t="s">
+        <v>80</v>
+      </c>
+      <c r="V37" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38">
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="L38" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>80</v>
+      </c>
+      <c r="R38" t="s">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s">
+        <v>226</v>
+      </c>
+      <c r="T38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s">
+        <v>84</v>
+      </c>
+      <c r="X38" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5629,7 +7080,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5668,701 +7119,1647 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" t="s" s="66">
-        <v>169</v>
-      </c>
-      <c r="E7" t="s" s="67">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s" s="73">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s" s="74">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="68">
-        <v>170</v>
-      </c>
-      <c r="G7" t="s" s="69">
-        <v>171</v>
+      <c r="F7" t="s" s="75">
+        <v>229</v>
+      </c>
+      <c r="G7" t="s" s="76">
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="F8">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$25</f>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="F9">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="F10">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="F11">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="F12">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="F13">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="F14">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="F15">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="F16">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="F17">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="F18">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="F19">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="F20">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="F21">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="F22">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="F23">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="F24">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G24" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="F25">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="F26">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G26" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="F27">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F28">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G28" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="F29">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="F30">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="F31">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G31" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="F32">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="F33">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="F34">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G34" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F35">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="F36">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="F37">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="F38">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="F39">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="F40">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="F41">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G41" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="F42">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="F43">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="F44">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="F45">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G45" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="F46">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="F47">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="F48">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G48" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="F49">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="F50">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G50" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="F51">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G51" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="F52">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="F53">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="F54">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G54" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="F55">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G55" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="F56">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="F57">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G57" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="F58">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G58" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="F59">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="F60">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G60" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="F61">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G61" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="F62">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G62" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="F63">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G63" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="F64">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G64" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="F65">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G65" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="F66">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G66" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="F67">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="F68">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="F69">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G69" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G70" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>353</v>
+      </c>
+      <c r="F71">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>355</v>
+      </c>
+      <c r="F72">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G72" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>357</v>
+      </c>
+      <c r="F73">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>359</v>
+      </c>
+      <c r="F74">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>361</v>
+      </c>
+      <c r="F75">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>363</v>
+      </c>
+      <c r="F76">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G76" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G77" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>367</v>
+      </c>
+      <c r="F78">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>369</v>
+      </c>
+      <c r="F79">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
+        <v>371</v>
+      </c>
+      <c r="F80">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G80" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
+        <v>373</v>
+      </c>
+      <c r="F81">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G81" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
+        <v>375</v>
+      </c>
+      <c r="F82">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G82" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s">
+        <v>377</v>
+      </c>
+      <c r="F83">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G83" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s">
+        <v>379</v>
+      </c>
+      <c r="F84">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s">
+        <v>381</v>
+      </c>
+      <c r="F85">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s">
+        <v>382</v>
+      </c>
+      <c r="F86">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s">
+        <v>384</v>
+      </c>
+      <c r="F87">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G87" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s">
+        <v>386</v>
+      </c>
+      <c r="F88">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s">
+        <v>388</v>
+      </c>
+      <c r="F89">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G89" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s">
+        <v>390</v>
+      </c>
+      <c r="F90">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
+        <v>392</v>
+      </c>
+      <c r="F91">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G91" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>394</v>
+      </c>
+      <c r="F92">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G92" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s">
+        <v>396</v>
+      </c>
+      <c r="F93">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G93" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="s">
+        <v>398</v>
+      </c>
+      <c r="F94">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="G94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="s">
+        <v>399</v>
+      </c>
+      <c r="F95">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="G95" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="s">
+        <v>401</v>
+      </c>
+      <c r="F96">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="G96" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="s">
+        <v>403</v>
+      </c>
+      <c r="F97">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="G97" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s">
+        <v>404</v>
+      </c>
+      <c r="F98">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="G98" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s">
+        <v>406</v>
+      </c>
+      <c r="F99">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="G99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s">
+        <v>408</v>
+      </c>
+      <c r="F100">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="G100" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s">
+        <v>409</v>
+      </c>
+      <c r="F101">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="G101" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="G102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="s">
+        <v>412</v>
+      </c>
+      <c r="F103">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="G103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="s">
+        <v>413</v>
+      </c>
+      <c r="F104">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="G104" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="s">
+        <v>414</v>
+      </c>
+      <c r="F105">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="G105" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="s">
+        <v>416</v>
+      </c>
+      <c r="F106">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G106" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="s">
+        <v>418</v>
+      </c>
+      <c r="F107">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G107" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>420</v>
+      </c>
+      <c r="F108">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G108" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="s">
+        <v>422</v>
+      </c>
+      <c r="F109">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G109" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="s">
+        <v>424</v>
+      </c>
+      <c r="F110">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G110" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="s">
+        <v>426</v>
+      </c>
+      <c r="F111">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="s">
+        <v>427</v>
+      </c>
+      <c r="F112">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="G112" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="s">
+        <v>429</v>
+      </c>
+      <c r="F113">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="G113" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="s">
+        <v>431</v>
+      </c>
+      <c r="F114">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="G114" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="s">
+        <v>433</v>
+      </c>
+      <c r="F115">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="G115" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="s">
+        <v>434</v>
+      </c>
+      <c r="F116">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G116" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>436</v>
+      </c>
+      <c r="F117">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="G117" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>438</v>
+      </c>
+      <c r="F118">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="G118" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>440</v>
+      </c>
+      <c r="F119">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="G119" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s">
+        <v>442</v>
+      </c>
+      <c r="F120">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="G120" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s">
+        <v>443</v>
+      </c>
+      <c r="F121">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="G121" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="s">
+        <v>445</v>
+      </c>
+      <c r="F122">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="G122" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="s">
+        <v>446</v>
+      </c>
+      <c r="F123">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="G123" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="s">
+        <v>447</v>
+      </c>
+      <c r="F124">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="G124" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="s">
+        <v>449</v>
+      </c>
+      <c r="F125">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="G125" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="s">
+        <v>450</v>
+      </c>
+      <c r="F126">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G126" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="s">
+        <v>451</v>
+      </c>
+      <c r="F127">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G127" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="s">
+        <v>452</v>
+      </c>
+      <c r="F128">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G128" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="s">
+        <v>453</v>
+      </c>
+      <c r="F129">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G129" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="s">
+        <v>454</v>
+      </c>
+      <c r="F130">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G130" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="s">
+        <v>456</v>
+      </c>
+      <c r="F131">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G131" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="s">
+        <v>457</v>
+      </c>
+      <c r="F132">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G132" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="s">
+        <v>459</v>
+      </c>
+      <c r="F133">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G133" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="s">
+        <v>461</v>
+      </c>
+      <c r="F134">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G134" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="s">
+        <v>462</v>
+      </c>
+      <c r="F135">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G135" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="s">
+        <v>463</v>
+      </c>
+      <c r="F136">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G136" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="s">
+        <v>465</v>
+      </c>
+      <c r="F137">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G137" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="s">
+        <v>467</v>
+      </c>
+      <c r="F138">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G138" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="s">
+        <v>469</v>
+      </c>
+      <c r="F139">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G139" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="s">
+        <v>471</v>
+      </c>
+      <c r="F140">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="G140" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="G141" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="s">
+        <v>474</v>
+      </c>
+      <c r="F142">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G142" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="s">
+        <v>475</v>
+      </c>
+      <c r="F143">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G143" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="s">
+        <v>477</v>
+      </c>
+      <c r="F144">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G144" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="s">
+        <v>479</v>
+      </c>
+      <c r="F145">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="G145" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="s">
+        <v>480</v>
+      </c>
+      <c r="F146">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="G146" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="s">
+        <v>482</v>
+      </c>
+      <c r="F147">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="G147" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="s">
+        <v>483</v>
+      </c>
+      <c r="F148">
         <f>菜单SAAS版!$E$26</f>
       </c>
-      <c r="G69" t="s">
-        <v>268</v>
+      <c r="G148" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="s">
+        <v>485</v>
+      </c>
+      <c r="F149">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="G149" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="s">
+        <v>487</v>
+      </c>
+      <c r="F150">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="G150" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="s">
+        <v>489</v>
+      </c>
+      <c r="F151">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="G151" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="s">
+        <v>491</v>
+      </c>
+      <c r="F152">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G152" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="s">
+        <v>493</v>
+      </c>
+      <c r="F153">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G153" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="s">
+        <v>495</v>
+      </c>
+      <c r="F154">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G154" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="s">
+        <v>497</v>
+      </c>
+      <c r="F155">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G155" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6372,7 +8769,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6411,66 +8808,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>277</v>
-      </c>
-      <c r="E7" t="s" s="71">
+        <v>498</v>
+      </c>
+      <c r="D7" t="s" s="77">
+        <v>499</v>
+      </c>
+      <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="72">
-        <v>278</v>
-      </c>
-      <c r="G7" t="s" s="73">
-        <v>279</v>
+      <c r="F7" t="s" s="79">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s" s="80">
+        <v>501</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>503</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>504</v>
       </c>
       <c r="K7" t="s">
-        <v>283</v>
+        <v>505</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>506</v>
       </c>
       <c r="M7" t="s">
-        <v>285</v>
+        <v>507</v>
       </c>
       <c r="N7" t="s">
-        <v>286</v>
+        <v>508</v>
       </c>
       <c r="O7" t="s">
-        <v>287</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>288</v>
+        <v>510</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>511</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J8" t="s">
-        <v>292</v>
+        <v>514</v>
       </c>
       <c r="K8" t="s">
-        <v>289</v>
+        <v>511</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -6484,25 +8881,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>293</v>
+        <v>515</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J9" t="s">
-        <v>295</v>
+        <v>517</v>
       </c>
       <c r="K9" t="s">
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -6516,19 +8913,19 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>296</v>
+        <v>518</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>519</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -6542,25 +8939,25 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>299</v>
+        <v>521</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>522</v>
       </c>
       <c r="G11" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
         <v>83</v>
@@ -6568,25 +8965,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>301</v>
+        <v>523</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>524</v>
       </c>
       <c r="G12" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="J12" t="s">
-        <v>303</v>
+        <v>525</v>
       </c>
       <c r="K12" t="s">
-        <v>303</v>
+        <v>525</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -6600,28 +8997,28 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="F13" t="s">
-        <v>305</v>
+        <v>527</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J13" t="s">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
         <v>83</v>
@@ -6629,28 +9026,28 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>307</v>
+        <v>529</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>530</v>
       </c>
       <c r="G14" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J14" t="s">
-        <v>309</v>
+        <v>531</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O14" t="s">
         <v>83</v>
@@ -6658,28 +9055,28 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>310</v>
+        <v>532</v>
       </c>
       <c r="F15" t="s">
-        <v>311</v>
+        <v>533</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J15" t="s">
-        <v>312</v>
+        <v>534</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
         <v>83</v>
@@ -6687,28 +9084,28 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>313</v>
+        <v>535</v>
       </c>
       <c r="F16" t="s">
-        <v>314</v>
+        <v>536</v>
       </c>
       <c r="G16" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J16" t="s">
-        <v>315</v>
+        <v>537</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
         <v>83</v>
@@ -6716,31 +9113,31 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>316</v>
+        <v>538</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>539</v>
       </c>
       <c r="G17" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J17" t="s">
-        <v>318</v>
+        <v>540</v>
       </c>
       <c r="K17" t="s">
-        <v>318</v>
+        <v>540</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O17" t="s">
         <v>83</v>
@@ -6748,31 +9145,31 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>319</v>
+        <v>541</v>
       </c>
       <c r="F18" t="s">
-        <v>320</v>
+        <v>542</v>
       </c>
       <c r="G18" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J18" t="s">
-        <v>321</v>
+        <v>543</v>
       </c>
       <c r="K18" t="s">
-        <v>321</v>
+        <v>543</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
         <v>83</v>
@@ -6780,25 +9177,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>322</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
-        <v>323</v>
+        <v>545</v>
       </c>
       <c r="G19" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>291</v>
+        <v>513</v>
       </c>
       <c r="J19" t="s">
-        <v>324</v>
+        <v>546</v>
       </c>
       <c r="K19" t="s">
-        <v>323</v>
+        <v>545</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -6812,25 +9209,25 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>325</v>
+        <v>547</v>
       </c>
       <c r="F20" t="s">
-        <v>326</v>
+        <v>548</v>
       </c>
       <c r="G20" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
         <v>83</v>
@@ -6838,31 +9235,31 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>327</v>
+        <v>549</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>550</v>
       </c>
       <c r="G21" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="J21" t="s">
-        <v>329</v>
+        <v>551</v>
       </c>
       <c r="K21" t="s">
-        <v>329</v>
+        <v>551</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O21" t="s">
         <v>83</v>
@@ -6870,31 +9267,31 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>553</v>
       </c>
       <c r="G22" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="J22" t="s">
-        <v>332</v>
+        <v>554</v>
       </c>
       <c r="K22" t="s">
-        <v>332</v>
+        <v>554</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O22" t="s">
         <v>83</v>
@@ -6902,31 +9299,31 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>333</v>
+        <v>555</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
+        <v>556</v>
       </c>
       <c r="G23" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="J23" t="s">
-        <v>335</v>
+        <v>557</v>
       </c>
       <c r="K23" t="s">
-        <v>335</v>
+        <v>557</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O23" t="s">
         <v>83</v>
@@ -6934,25 +9331,25 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>336</v>
+        <v>558</v>
       </c>
       <c r="F24" t="s">
-        <v>337</v>
+        <v>559</v>
       </c>
       <c r="G24" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O24" t="s">
         <v>83</v>
@@ -6960,28 +9357,28 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>338</v>
+        <v>560</v>
       </c>
       <c r="F25" t="s">
-        <v>339</v>
+        <v>561</v>
       </c>
       <c r="G25" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="J25" t="s">
-        <v>340</v>
+        <v>562</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O25" t="s">
         <v>83</v>
@@ -6989,28 +9386,28 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>341</v>
+        <v>563</v>
       </c>
       <c r="F26" t="s">
-        <v>342</v>
+        <v>564</v>
       </c>
       <c r="G26" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>298</v>
+        <v>520</v>
       </c>
       <c r="J26" t="s">
-        <v>343</v>
+        <v>565</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O26" t="s">
         <v>83</v>
@@ -7024,178 +9421,892 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>344</v>
-      </c>
-      <c r="D28" t="s" s="74">
-        <v>345</v>
-      </c>
-      <c r="E28" t="s" s="75">
-        <v>346</v>
-      </c>
-      <c r="F28" t="s" s="76">
-        <v>347</v>
-      </c>
-      <c r="G28" t="s" s="77">
-        <v>348</v>
-      </c>
-      <c r="H28" t="s" s="78">
-        <v>349</v>
+        <v>566</v>
+      </c>
+      <c r="D28" t="s" s="81">
+        <v>567</v>
+      </c>
+      <c r="E28" t="s" s="82">
+        <v>568</v>
+      </c>
+      <c r="F28" t="s" s="83">
+        <v>569</v>
+      </c>
+      <c r="G28" t="s" s="84">
+        <v>570</v>
+      </c>
+      <c r="H28" t="s" s="85">
+        <v>571</v>
       </c>
       <c r="I28" t="s">
-        <v>350</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$32</f>
       </c>
       <c r="H29">
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I29" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$32</f>
       </c>
       <c r="H30">
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I30" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$32</f>
       </c>
       <c r="H31">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I31" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$32</f>
       </c>
       <c r="H32">
-        <f>菜单标签数据!$E$21</f>
+        <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I32" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$32</f>
       </c>
       <c r="H33">
-        <f>菜单标签数据!$E$24</f>
+        <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I33" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G34">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$35</f>
       </c>
       <c r="H34">
-        <f>菜单标签数据!$E$26</f>
+        <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I34" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G35">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$35</f>
       </c>
       <c r="H35">
-        <f>菜单标签数据!$E$13</f>
+        <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I35" t="s">
-        <v>353</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G36">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$35</f>
       </c>
       <c r="H36">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I36" t="s">
-        <v>353</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="G37">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$37</f>
       </c>
       <c r="H37">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>573</v>
+      </c>
+      <c r="F38" t="s">
+        <v>512</v>
+      </c>
+      <c r="G38">
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="H38">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I38" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>573</v>
+      </c>
+      <c r="F39" t="s">
+        <v>512</v>
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="H39">
+        <f>菜单标签数据!$E$26</f>
+      </c>
+      <c r="I39" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>573</v>
+      </c>
+      <c r="F40" t="s">
+        <v>512</v>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H40">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I40" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>573</v>
+      </c>
+      <c r="F41" t="s">
+        <v>512</v>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H41">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I41" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>573</v>
+      </c>
+      <c r="F42" t="s">
+        <v>512</v>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H42">
+        <f>菜单标签数据!$E$26</f>
+      </c>
+      <c r="I42" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>573</v>
+      </c>
+      <c r="F43" t="s">
+        <v>512</v>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H43">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>573</v>
+      </c>
+      <c r="F44" t="s">
+        <v>512</v>
+      </c>
+      <c r="G44">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H44">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I44" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>573</v>
+      </c>
+      <c r="F45" t="s">
+        <v>512</v>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H45">
+        <f>菜单标签数据!$E$15</f>
+      </c>
+      <c r="I45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>573</v>
+      </c>
+      <c r="F46" t="s">
+        <v>512</v>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H46">
+        <f>菜单标签数据!$E$16</f>
+      </c>
+      <c r="I46" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>573</v>
+      </c>
+      <c r="F47" t="s">
+        <v>512</v>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H47">
         <f>菜单标签数据!$E$17</f>
       </c>
-      <c r="I37" t="s">
-        <v>353</v>
+      <c r="I47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>573</v>
+      </c>
+      <c r="F48" t="s">
+        <v>512</v>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H48">
+        <f>菜单标签数据!$E$21</f>
+      </c>
+      <c r="I48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>573</v>
+      </c>
+      <c r="F49" t="s">
+        <v>512</v>
+      </c>
+      <c r="G49">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H49">
+        <f>菜单标签数据!$E$24</f>
+      </c>
+      <c r="I49" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>573</v>
+      </c>
+      <c r="F50" t="s">
+        <v>512</v>
+      </c>
+      <c r="G50">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H50">
+        <f>菜单标签数据!$E$26</f>
+      </c>
+      <c r="I50" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>573</v>
+      </c>
+      <c r="F51" t="s">
+        <v>512</v>
+      </c>
+      <c r="G51">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H51">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I51" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>573</v>
+      </c>
+      <c r="F52" t="s">
+        <v>512</v>
+      </c>
+      <c r="G52">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H52">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I52" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>573</v>
+      </c>
+      <c r="F53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G53">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H53">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I53" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>573</v>
+      </c>
+      <c r="F54" t="s">
+        <v>512</v>
+      </c>
+      <c r="G54">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H54">
+        <f>菜单标签数据!$E$21</f>
+      </c>
+      <c r="I54" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>573</v>
+      </c>
+      <c r="F55" t="s">
+        <v>512</v>
+      </c>
+      <c r="G55">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H55">
+        <f>菜单标签数据!$E$24</f>
+      </c>
+      <c r="I55" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>573</v>
+      </c>
+      <c r="F56" t="s">
+        <v>512</v>
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H56">
+        <f>菜单标签数据!$E$26</f>
+      </c>
+      <c r="I56" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>573</v>
+      </c>
+      <c r="F57" t="s">
+        <v>512</v>
+      </c>
+      <c r="G57">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H57">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I57" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>573</v>
+      </c>
+      <c r="F58" t="s">
+        <v>512</v>
+      </c>
+      <c r="G58">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H58">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I58" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>573</v>
+      </c>
+      <c r="F59" t="s">
+        <v>512</v>
+      </c>
+      <c r="G59">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H59">
+        <f>菜单标签数据!$E$15</f>
+      </c>
+      <c r="I59" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>573</v>
+      </c>
+      <c r="F60" t="s">
+        <v>512</v>
+      </c>
+      <c r="G60">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H60">
+        <f>菜单标签数据!$E$16</f>
+      </c>
+      <c r="I60" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>573</v>
+      </c>
+      <c r="F61" t="s">
+        <v>512</v>
+      </c>
+      <c r="G61">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H61">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I61" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>573</v>
+      </c>
+      <c r="F62" t="s">
+        <v>512</v>
+      </c>
+      <c r="G62">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H62">
+        <f>菜单标签数据!$E$21</f>
+      </c>
+      <c r="I62" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>573</v>
+      </c>
+      <c r="F63" t="s">
+        <v>512</v>
+      </c>
+      <c r="G63">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H63">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I63" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>573</v>
+      </c>
+      <c r="F64" t="s">
+        <v>512</v>
+      </c>
+      <c r="G64">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H64">
+        <f>菜单标签数据!$E$24</f>
+      </c>
+      <c r="I64" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>573</v>
+      </c>
+      <c r="F65" t="s">
+        <v>512</v>
+      </c>
+      <c r="G65">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H65">
+        <f>菜单标签数据!$E$26</f>
+      </c>
+      <c r="I65" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>573</v>
+      </c>
+      <c r="F66" t="s">
+        <v>512</v>
+      </c>
+      <c r="G66">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H66">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I66" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>573</v>
+      </c>
+      <c r="F67" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H67">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I67" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>573</v>
+      </c>
+      <c r="F68" t="s">
+        <v>512</v>
+      </c>
+      <c r="G68">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H68">
+        <f>菜单标签数据!$E$26</f>
+      </c>
+      <c r="I68" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>573</v>
+      </c>
+      <c r="F69" t="s">
+        <v>512</v>
+      </c>
+      <c r="G69">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="H69">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I69" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>573</v>
+      </c>
+      <c r="F70" t="s">
+        <v>512</v>
+      </c>
+      <c r="G70">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="H70">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I70" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>573</v>
+      </c>
+      <c r="F71" t="s">
+        <v>512</v>
+      </c>
+      <c r="G71">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="H71">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I71" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>573</v>
+      </c>
+      <c r="F72" t="s">
+        <v>512</v>
+      </c>
+      <c r="G72">
+        <f>菜单SAAS版!$E$31</f>
+      </c>
+      <c r="H72">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>573</v>
+      </c>
+      <c r="F73" t="s">
+        <v>512</v>
+      </c>
+      <c r="G73">
+        <f>菜单SAAS版!$E$31</f>
+      </c>
+      <c r="H73">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>573</v>
+      </c>
+      <c r="F74" t="s">
+        <v>512</v>
+      </c>
+      <c r="G74">
+        <f>菜单SAAS版!$E$34</f>
+      </c>
+      <c r="H74">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I74" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>573</v>
+      </c>
+      <c r="F75" t="s">
+        <v>512</v>
+      </c>
+      <c r="G75">
+        <f>菜单SAAS版!$E$34</f>
+      </c>
+      <c r="H75">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I75" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>573</v>
+      </c>
+      <c r="F76" t="s">
+        <v>512</v>
+      </c>
+      <c r="G76">
+        <f>菜单SAAS版!$E$36</f>
+      </c>
+      <c r="H76">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I76" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>573</v>
+      </c>
+      <c r="F77" t="s">
+        <v>512</v>
+      </c>
+      <c r="G77">
+        <f>菜单SAAS版!$E$36</f>
+      </c>
+      <c r="H77">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I77" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>573</v>
+      </c>
+      <c r="F78" t="s">
+        <v>512</v>
+      </c>
+      <c r="G78">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H78">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I78" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>573</v>
+      </c>
+      <c r="F79" t="s">
+        <v>512</v>
+      </c>
+      <c r="G79">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H79">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I79" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7205,7 +10316,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7244,12 +10355,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" t="s" s="79">
-        <v>355</v>
-      </c>
-      <c r="E7" t="s" s="80">
+        <v>576</v>
+      </c>
+      <c r="D7" t="s" s="86">
+        <v>577</v>
+      </c>
+      <c r="E7" t="s" s="87">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -7258,100 +10369,100 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="81">
+      <c r="H7" t="s" s="88">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K7" t="s" s="82">
+        <v>503</v>
+      </c>
+      <c r="K7" t="s" s="89">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M7" t="s" s="83">
-        <v>358</v>
-      </c>
-      <c r="N7" t="s" s="84">
-        <v>359</v>
+        <v>578</v>
+      </c>
+      <c r="M7" t="s" s="90">
+        <v>579</v>
+      </c>
+      <c r="N7" t="s" s="91">
+        <v>580</v>
       </c>
       <c r="O7" t="s">
-        <v>360</v>
+        <v>581</v>
       </c>
       <c r="P7" t="s">
-        <v>361</v>
+        <v>582</v>
       </c>
       <c r="Q7" t="s">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="R7" t="s">
-        <v>363</v>
+        <v>584</v>
       </c>
       <c r="S7" t="s">
-        <v>364</v>
+        <v>585</v>
       </c>
       <c r="T7" t="s">
-        <v>365</v>
+        <v>586</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>366</v>
-      </c>
-      <c r="W7" t="s" s="85">
-        <v>367</v>
+        <v>587</v>
+      </c>
+      <c r="W7" t="s" s="92">
+        <v>588</v>
       </c>
       <c r="X7" t="s">
-        <v>368</v>
+        <v>589</v>
       </c>
       <c r="Y7" t="s">
-        <v>369</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
       <c r="F8" t="s">
-        <v>371</v>
+        <v>592</v>
       </c>
       <c r="G8" t="s">
-        <v>372</v>
+        <v>593</v>
       </c>
       <c r="H8" t="s">
-        <v>373</v>
+        <v>594</v>
       </c>
       <c r="I8" t="s">
-        <v>374</v>
+        <v>595</v>
       </c>
       <c r="J8" t="s">
-        <v>375</v>
+        <v>596</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
         <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
         <v>83</v>
@@ -7360,57 +10471,57 @@
         <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>373</v>
+        <v>594</v>
       </c>
       <c r="V8" t="s">
-        <v>373</v>
+        <v>594</v>
       </c>
       <c r="W8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>376</v>
+        <v>597</v>
       </c>
       <c r="F9" t="s">
-        <v>377</v>
+        <v>598</v>
       </c>
       <c r="G9" t="s">
-        <v>378</v>
+        <v>599</v>
       </c>
       <c r="H9" t="s">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="I9" t="s">
-        <v>380</v>
+        <v>601</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
         <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
         <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
         <v>83</v>
@@ -7419,39 +10530,39 @@
         <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="V9" t="s">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>381</v>
+        <v>602</v>
       </c>
       <c r="F10" t="s">
-        <v>382</v>
+        <v>603</v>
       </c>
       <c r="G10" t="s">
-        <v>383</v>
+        <v>604</v>
       </c>
       <c r="H10" t="s">
-        <v>384</v>
+        <v>605</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M10">
         <f>角色!$E$9</f>
@@ -7460,13 +10571,13 @@
         <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
         <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
         <v>83</v>
@@ -7475,45 +10586,45 @@
         <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>385</v>
+        <v>606</v>
       </c>
       <c r="V10" t="s">
-        <v>386</v>
+        <v>607</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>377</v>
+        <v>598</v>
       </c>
       <c r="Y10" t="s">
-        <v>387</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>388</v>
+        <v>609</v>
       </c>
       <c r="F11" t="s">
-        <v>389</v>
+        <v>610</v>
       </c>
       <c r="G11" t="s">
-        <v>390</v>
+        <v>611</v>
       </c>
       <c r="H11" t="s">
-        <v>391</v>
+        <v>612</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M11">
         <f>角色!$E$9</f>
@@ -7522,13 +10633,13 @@
         <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
         <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
         <v>83</v>
@@ -7537,45 +10648,45 @@
         <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>392</v>
+        <v>613</v>
       </c>
       <c r="V11" t="s">
-        <v>393</v>
+        <v>614</v>
       </c>
       <c r="W11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>394</v>
+        <v>615</v>
       </c>
       <c r="Y11" t="s">
-        <v>395</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>396</v>
+        <v>617</v>
       </c>
       <c r="F12" t="s">
-        <v>397</v>
+        <v>618</v>
       </c>
       <c r="G12" t="s">
-        <v>398</v>
+        <v>619</v>
       </c>
       <c r="H12" t="s">
-        <v>399</v>
+        <v>620</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M12">
         <f>角色!$E$9</f>
@@ -7584,13 +10695,13 @@
         <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
         <v>83</v>
@@ -7599,45 +10710,45 @@
         <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>400</v>
+        <v>621</v>
       </c>
       <c r="V12" t="s">
-        <v>401</v>
+        <v>622</v>
       </c>
       <c r="W12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>402</v>
+        <v>623</v>
       </c>
       <c r="Y12" t="s">
-        <v>403</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>404</v>
+        <v>625</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>626</v>
       </c>
       <c r="G13" t="s">
-        <v>406</v>
+        <v>627</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>628</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M13">
         <f>角色!$E$9</f>
@@ -7646,13 +10757,13 @@
         <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
         <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
         <v>83</v>
@@ -7661,60 +10772,60 @@
         <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>408</v>
+        <v>629</v>
       </c>
       <c r="V13" t="s">
-        <v>409</v>
+        <v>630</v>
       </c>
       <c r="W13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>410</v>
+        <v>631</v>
       </c>
       <c r="Y13" t="s">
-        <v>411</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>412</v>
+        <v>633</v>
       </c>
       <c r="F14" t="s">
-        <v>413</v>
+        <v>634</v>
       </c>
       <c r="G14" t="s">
-        <v>414</v>
+        <v>635</v>
       </c>
       <c r="H14" t="s">
-        <v>415</v>
+        <v>636</v>
       </c>
       <c r="J14" t="s">
-        <v>375</v>
+        <v>596</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
         <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
         <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
         <v>83</v>
@@ -7723,13 +10834,13 @@
         <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>415</v>
+        <v>636</v>
       </c>
       <c r="V14" t="s">
-        <v>416</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16">
@@ -7740,213 +10851,213 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
-      </c>
-      <c r="D16" t="s" s="86">
-        <v>418</v>
-      </c>
-      <c r="E16" t="s" s="87">
+        <v>638</v>
+      </c>
+      <c r="D16" t="s" s="93">
+        <v>639</v>
+      </c>
+      <c r="E16" t="s" s="94">
         <v>54</v>
       </c>
-      <c r="F16" t="s" s="88">
-        <v>419</v>
-      </c>
-      <c r="G16" t="s" s="89">
-        <v>420</v>
+      <c r="F16" t="s" s="95">
+        <v>640</v>
+      </c>
+      <c r="G16" t="s" s="96">
+        <v>641</v>
       </c>
       <c r="H16" t="s">
-        <v>421</v>
+        <v>642</v>
       </c>
       <c r="I16" t="s">
-        <v>422</v>
-      </c>
-      <c r="J16" t="s" s="90">
-        <v>279</v>
+        <v>643</v>
+      </c>
+      <c r="J16" t="s" s="97">
+        <v>501</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>423</v>
+        <v>644</v>
       </c>
       <c r="F17">
         <f>角色!$E$10</f>
       </c>
       <c r="G17">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$25</f>
       </c>
       <c r="H17" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I17" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J17" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>427</v>
+        <v>648</v>
       </c>
       <c r="F18">
         <f>角色!$E$10</f>
       </c>
       <c r="G18">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="H18" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I18" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J18" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>428</v>
+        <v>649</v>
       </c>
       <c r="F19">
         <f>角色!$E$10</f>
       </c>
       <c r="G19">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="H19" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I19" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J19" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>429</v>
+        <v>650</v>
       </c>
       <c r="F20">
         <f>角色!$E$10</f>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="H20" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I20" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J20" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>430</v>
+        <v>651</v>
       </c>
       <c r="F21">
         <f>角色!$E$10</f>
       </c>
       <c r="G21">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I21" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J21" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>431</v>
+        <v>652</v>
       </c>
       <c r="F22">
         <f>角色!$E$10</f>
       </c>
       <c r="G22">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H22" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I22" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J22" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>432</v>
+        <v>653</v>
       </c>
       <c r="F23">
         <f>角色!$E$10</f>
       </c>
       <c r="G23">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H23" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I23" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J23" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>433</v>
+        <v>654</v>
       </c>
       <c r="F24">
         <f>角色!$E$10</f>
       </c>
       <c r="G24">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H24" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I24" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J24" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>434</v>
+        <v>655</v>
       </c>
       <c r="F25">
         <f>角色!$E$10</f>
       </c>
       <c r="G25">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="H25" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I25" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J25" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>435</v>
+        <v>656</v>
       </c>
       <c r="F26">
         <f>角色!$E$10</f>
@@ -7955,38 +11066,38 @@
         <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H26" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I26" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J26" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>436</v>
+        <v>657</v>
       </c>
       <c r="F27">
         <f>角色!$E$10</f>
       </c>
       <c r="G27">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H27" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I27" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J27" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>437</v>
+        <v>658</v>
       </c>
       <c r="F28">
         <f>角色!$E$10</f>
@@ -7995,553 +11106,1526 @@
         <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H28" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I28" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J28" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>438</v>
+        <v>659</v>
       </c>
       <c r="F29">
         <f>角色!$E$10</f>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H29" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I29" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J29" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>439</v>
+        <v>660</v>
       </c>
       <c r="F30">
-        <f>角色!$E$12</f>
+        <f>角色!$E$10</f>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H30" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I30" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J30" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>440</v>
+        <v>661</v>
       </c>
       <c r="F31">
-        <f>角色!$E$12</f>
+        <f>角色!$E$10</f>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H31" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I31" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J31" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>441</v>
+        <v>662</v>
       </c>
       <c r="F32">
-        <f>角色!$E$12</f>
+        <f>角色!$E$10</f>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H32" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I32" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J32" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>442</v>
+        <v>663</v>
       </c>
       <c r="F33">
-        <f>角色!$E$12</f>
+        <f>角色!$E$10</f>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H33" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I33" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J33" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>443</v>
+        <v>664</v>
       </c>
       <c r="F34">
         <f>角色!$E$12</f>
       </c>
       <c r="G34">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$25</f>
       </c>
       <c r="H34" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I34" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J34" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>444</v>
+        <v>665</v>
       </c>
       <c r="F35">
         <f>角色!$E$12</f>
       </c>
       <c r="G35">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="H35" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I35" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J35" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>445</v>
+        <v>666</v>
       </c>
       <c r="F36">
         <f>角色!$E$12</f>
       </c>
       <c r="G36">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="H36" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I36" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J36" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>446</v>
+        <v>667</v>
       </c>
       <c r="F37">
         <f>角色!$E$12</f>
       </c>
       <c r="G37">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="H37" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I37" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J37" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>447</v>
+        <v>668</v>
       </c>
       <c r="F38">
         <f>角色!$E$12</f>
       </c>
       <c r="G38">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="H38" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I38" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J38" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>448</v>
+        <v>669</v>
       </c>
       <c r="F39">
         <f>角色!$E$12</f>
       </c>
       <c r="G39">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H39" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I39" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J39" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>449</v>
+        <v>670</v>
       </c>
       <c r="F40">
         <f>角色!$E$12</f>
       </c>
       <c r="G40">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H40" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I40" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J40" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>450</v>
+        <v>671</v>
       </c>
       <c r="F41">
         <f>角色!$E$12</f>
       </c>
       <c r="G41">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H41" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I41" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J41" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>451</v>
+        <v>672</v>
       </c>
       <c r="F42">
         <f>角色!$E$12</f>
       </c>
       <c r="G42">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="H42" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I42" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J42" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>452</v>
+        <v>673</v>
       </c>
       <c r="F43">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G43">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H43" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I43" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J43" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>453</v>
+        <v>674</v>
       </c>
       <c r="F44">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G44">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H44" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I44" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J44" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>454</v>
+        <v>675</v>
       </c>
       <c r="F45">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G45">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H45" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I45" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J45" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>455</v>
+        <v>676</v>
       </c>
       <c r="F46">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G46">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H46" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I46" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J46" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>456</v>
+        <v>677</v>
       </c>
       <c r="F47">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G47">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H47" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I47" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J47" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>457</v>
+        <v>678</v>
       </c>
       <c r="F48">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G48">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H48" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I48" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J48" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>458</v>
+        <v>679</v>
       </c>
       <c r="F49">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G49">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H49" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I49" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J49" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>459</v>
+        <v>680</v>
       </c>
       <c r="F50">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G50">
         <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H50" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>460</v>
+        <v>681</v>
       </c>
       <c r="F51">
         <f>角色!$E$13</f>
       </c>
       <c r="G51">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$25</f>
       </c>
       <c r="H51" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I51" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J51" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>461</v>
+        <v>682</v>
       </c>
       <c r="F52">
         <f>角色!$E$13</f>
       </c>
       <c r="G52">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="H52" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I52" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J52" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>462</v>
+        <v>683</v>
       </c>
       <c r="F53">
         <f>角色!$E$13</f>
       </c>
       <c r="G53">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="H53" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I53" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J53" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>463</v>
+        <v>684</v>
       </c>
       <c r="F54">
         <f>角色!$E$13</f>
       </c>
       <c r="G54">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="H54" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>464</v>
+        <v>685</v>
       </c>
       <c r="F55">
         <f>角色!$E$13</f>
       </c>
       <c r="G55">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H55" t="s">
+        <v>645</v>
+      </c>
+      <c r="I55" t="s">
+        <v>646</v>
+      </c>
+      <c r="J55" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>686</v>
+      </c>
+      <c r="F56">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H56" t="s">
+        <v>645</v>
+      </c>
+      <c r="I56" t="s">
+        <v>646</v>
+      </c>
+      <c r="J56" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>687</v>
+      </c>
+      <c r="F57">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G57">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H57" t="s">
+        <v>645</v>
+      </c>
+      <c r="I57" t="s">
+        <v>646</v>
+      </c>
+      <c r="J57" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>688</v>
+      </c>
+      <c r="F58">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G58">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H58" t="s">
+        <v>645</v>
+      </c>
+      <c r="I58" t="s">
+        <v>646</v>
+      </c>
+      <c r="J58" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>689</v>
+      </c>
+      <c r="F59">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G59">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H59" t="s">
+        <v>645</v>
+      </c>
+      <c r="I59" t="s">
+        <v>646</v>
+      </c>
+      <c r="J59" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>690</v>
+      </c>
+      <c r="F60">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G60">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H60" t="s">
+        <v>645</v>
+      </c>
+      <c r="I60" t="s">
+        <v>646</v>
+      </c>
+      <c r="J60" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>691</v>
+      </c>
+      <c r="F61">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G61">
         <f>菜单SAAS版!$E$15</f>
       </c>
-      <c r="H55" t="s">
-        <v>424</v>
-      </c>
-      <c r="I55" t="s">
-        <v>425</v>
-      </c>
-      <c r="J55" t="s">
-        <v>426</v>
+      <c r="H61" t="s">
+        <v>645</v>
+      </c>
+      <c r="I61" t="s">
+        <v>646</v>
+      </c>
+      <c r="J61" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>692</v>
+      </c>
+      <c r="F62">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G62">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H62" t="s">
+        <v>645</v>
+      </c>
+      <c r="I62" t="s">
+        <v>646</v>
+      </c>
+      <c r="J62" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>693</v>
+      </c>
+      <c r="F63">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G63">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H63" t="s">
+        <v>645</v>
+      </c>
+      <c r="I63" t="s">
+        <v>646</v>
+      </c>
+      <c r="J63" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>694</v>
+      </c>
+      <c r="F64">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G64">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H64" t="s">
+        <v>645</v>
+      </c>
+      <c r="I64" t="s">
+        <v>646</v>
+      </c>
+      <c r="J64" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>695</v>
+      </c>
+      <c r="F65">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G65">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H65" t="s">
+        <v>645</v>
+      </c>
+      <c r="I65" t="s">
+        <v>646</v>
+      </c>
+      <c r="J65" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>696</v>
+      </c>
+      <c r="F66">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G66">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H66" t="s">
+        <v>645</v>
+      </c>
+      <c r="I66" t="s">
+        <v>646</v>
+      </c>
+      <c r="J66" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>697</v>
+      </c>
+      <c r="F67">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G67">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H67" t="s">
+        <v>645</v>
+      </c>
+      <c r="I67" t="s">
+        <v>646</v>
+      </c>
+      <c r="J67" t="s">
+        <v>647</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="60">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="61">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="62">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="64">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" t="s" s="98">
+        <v>499</v>
+      </c>
+      <c r="E7" t="s" s="99">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="100">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s" s="101">
+        <v>501</v>
+      </c>
+      <c r="H7" t="s">
+        <v>502</v>
+      </c>
+      <c r="I7" t="s">
+        <v>503</v>
+      </c>
+      <c r="J7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M7" t="s">
+        <v>507</v>
+      </c>
+      <c r="N7" t="s">
+        <v>508</v>
+      </c>
+      <c r="O7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>510</v>
+      </c>
+      <c r="F8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G8" t="s">
+        <v>699</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>513</v>
+      </c>
+      <c r="J8" t="s">
+        <v>700</v>
+      </c>
+      <c r="K8" t="s">
+        <v>701</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F9" t="s">
+        <v>702</v>
+      </c>
+      <c r="G9" t="s">
+        <v>699</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>520</v>
+      </c>
+      <c r="J9" t="s">
+        <v>703</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F10" t="s">
+        <v>704</v>
+      </c>
+      <c r="G10" t="s">
+        <v>699</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>513</v>
+      </c>
+      <c r="J10" t="s">
+        <v>705</v>
+      </c>
+      <c r="K10" t="s">
+        <v>705</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" t="s">
+        <v>706</v>
+      </c>
+      <c r="G11" t="s">
+        <v>699</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>513</v>
+      </c>
+      <c r="J11" t="s">
+        <v>707</v>
+      </c>
+      <c r="K11" t="s">
+        <v>708</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F12" t="s">
+        <v>709</v>
+      </c>
+      <c r="G12" t="s">
+        <v>699</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J12" t="s">
+        <v>710</v>
+      </c>
+      <c r="K12" t="s">
+        <v>710</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>526</v>
+      </c>
+      <c r="F13" t="s">
+        <v>711</v>
+      </c>
+      <c r="G13" t="s">
+        <v>699</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>513</v>
+      </c>
+      <c r="J13" t="s">
+        <v>712</v>
+      </c>
+      <c r="K13" t="s">
+        <v>713</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>529</v>
+      </c>
+      <c r="F14" t="s">
+        <v>714</v>
+      </c>
+      <c r="G14" t="s">
+        <v>699</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>513</v>
+      </c>
+      <c r="J14" t="s">
+        <v>715</v>
+      </c>
+      <c r="K14" t="s">
+        <v>624</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>532</v>
+      </c>
+      <c r="F15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" t="s">
+        <v>699</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>513</v>
+      </c>
+      <c r="J15" t="s">
+        <v>717</v>
+      </c>
+      <c r="K15" t="s">
+        <v>718</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>535</v>
+      </c>
+      <c r="F16" t="s">
+        <v>719</v>
+      </c>
+      <c r="G16" t="s">
+        <v>699</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>513</v>
+      </c>
+      <c r="J16" t="s">
+        <v>720</v>
+      </c>
+      <c r="K16" t="s">
+        <v>721</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>538</v>
+      </c>
+      <c r="F17" t="s">
+        <v>722</v>
+      </c>
+      <c r="G17" t="s">
+        <v>699</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>513</v>
+      </c>
+      <c r="J17" t="s">
+        <v>723</v>
+      </c>
+      <c r="K17" t="s">
+        <v>724</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>541</v>
+      </c>
+      <c r="F18" t="s">
+        <v>725</v>
+      </c>
+      <c r="G18" t="s">
+        <v>699</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>513</v>
+      </c>
+      <c r="J18" t="s">
+        <v>726</v>
+      </c>
+      <c r="K18" t="s">
+        <v>725</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>544</v>
+      </c>
+      <c r="F19" t="s">
+        <v>727</v>
+      </c>
+      <c r="G19" t="s">
+        <v>699</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>513</v>
+      </c>
+      <c r="J19" t="s">
+        <v>728</v>
+      </c>
+      <c r="K19" t="s">
+        <v>727</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>566</v>
+      </c>
+      <c r="D21" t="s" s="102">
+        <v>567</v>
+      </c>
+      <c r="E21" t="s" s="103">
+        <v>568</v>
+      </c>
+      <c r="F21" t="s" s="104">
+        <v>569</v>
+      </c>
+      <c r="G21" t="s" s="105">
+        <v>570</v>
+      </c>
+      <c r="H21" t="s" s="106">
+        <v>571</v>
+      </c>
+      <c r="I21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>573</v>
+      </c>
+      <c r="F22" t="s">
+        <v>699</v>
+      </c>
+      <c r="G22">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H22">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>573</v>
+      </c>
+      <c r="F23" t="s">
+        <v>699</v>
+      </c>
+      <c r="G23">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H23">
+        <f>角色标签数据!$E$11</f>
+      </c>
+      <c r="I23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>573</v>
+      </c>
+      <c r="F24" t="s">
+        <v>699</v>
+      </c>
+      <c r="G24">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H24">
+        <f>角色标签数据!$E$12</f>
+      </c>
+      <c r="I24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>573</v>
+      </c>
+      <c r="F25" t="s">
+        <v>699</v>
+      </c>
+      <c r="G25">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H25">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>573</v>
+      </c>
+      <c r="F26" t="s">
+        <v>699</v>
+      </c>
+      <c r="G26">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H26">
+        <f>角色标签数据!$E$11</f>
+      </c>
+      <c r="I26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>573</v>
+      </c>
+      <c r="F27" t="s">
+        <v>699</v>
+      </c>
+      <c r="G27">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H27">
+        <f>角色标签数据!$E$15</f>
+      </c>
+      <c r="I27" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>573</v>
+      </c>
+      <c r="F28" t="s">
+        <v>699</v>
+      </c>
+      <c r="G28">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H28">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I28" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>573</v>
+      </c>
+      <c r="F29" t="s">
+        <v>699</v>
+      </c>
+      <c r="G29">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H29">
+        <f>角色标签数据!$E$13</f>
+      </c>
+      <c r="I29" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>573</v>
+      </c>
+      <c r="F30" t="s">
+        <v>699</v>
+      </c>
+      <c r="G30">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H30">
+        <f>角色标签数据!$E$14</f>
+      </c>
+      <c r="I30" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>573</v>
+      </c>
+      <c r="F31" t="s">
+        <v>699</v>
+      </c>
+      <c r="G31">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H31">
+        <f>角色标签数据!$E$18</f>
+      </c>
+      <c r="I31" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>573</v>
+      </c>
+      <c r="F32" t="s">
+        <v>699</v>
+      </c>
+      <c r="G32">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H32">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>573</v>
+      </c>
+      <c r="F33" t="s">
+        <v>699</v>
+      </c>
+      <c r="G33">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H33">
+        <f>角色标签数据!$E$13</f>
+      </c>
+      <c r="I33" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>573</v>
+      </c>
+      <c r="F34" t="s">
+        <v>699</v>
+      </c>
+      <c r="G34">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H34">
+        <f>角色标签数据!$E$16</f>
+      </c>
+      <c r="I34" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>573</v>
+      </c>
+      <c r="F35" t="s">
+        <v>699</v>
+      </c>
+      <c r="G35">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H35">
+        <f>角色标签数据!$E$19</f>
+      </c>
+      <c r="I35" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="746">
   <si>
     <r>
       <rPr>
@@ -2743,108 +2743,111 @@
     <t>iam_menu_permission-41</t>
   </si>
   <si>
+    <t>test-manager-service.test-case.downExcelFail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
     <t>test-manager-service.test-case.downLoadByFolder</t>
   </si>
   <si>
-    <t>iam_menu_permission-42</t>
+    <t>iam_menu_permission-43</t>
   </si>
   <si>
     <t>test-manager-service.test-case.downloadImportTemplate</t>
   </si>
   <si>
-    <t>iam_menu_permission-43</t>
+    <t>iam_menu_permission-44</t>
   </si>
   <si>
     <t>test-manager-service.test-case.importIssues</t>
   </si>
   <si>
-    <t>iam_menu_permission-44</t>
+    <t>iam_menu_permission-45</t>
   </si>
   <si>
     <t>test-manager-service.test-case.listCaseByFolderId</t>
   </si>
   <si>
-    <t>iam_menu_permission-45</t>
+    <t>iam_menu_permission-46</t>
   </si>
   <si>
     <t>test-manager-service.test-case.queryCaseInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-46</t>
+    <t>iam_menu_permission-47</t>
   </si>
   <si>
     <t>test-manager-service.test-case.updateCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-47</t>
+    <t>iam_menu_permission-48</t>
   </si>
   <si>
     <t>test-manager-service.test-file-load-history.cancelUpLoad</t>
   </si>
   <si>
-    <t>iam_menu_permission-48</t>
+    <t>iam_menu_permission-49</t>
   </si>
   <si>
     <t>test-manager-service.test-file-load-history.queryIssues</t>
   </si>
   <si>
-    <t>iam_menu_permission-49</t>
+    <t>iam_menu_permission-50</t>
   </si>
   <si>
     <t>test-manager-service.test-file-load-history.queryLatestLoadHistory</t>
   </si>
   <si>
-    <t>iam_menu_permission-50</t>
+    <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>test-manager-service.test-issue-folder.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-51</t>
+    <t>iam_menu_permission-52</t>
   </si>
   <si>
     <t>test-manager-service.test-issue-folder.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-52</t>
+    <t>iam_menu_permission-53</t>
   </si>
   <si>
     <t>test-manager-service.test-issue-folder.moveFolder</t>
   </si>
   <si>
-    <t>iam_menu_permission-53</t>
+    <t>iam_menu_permission-54</t>
   </si>
   <si>
     <t>test-manager-service.test-issue-folder.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-54</t>
+    <t>iam_menu_permission-55</t>
   </si>
   <si>
     <t>test-manager-service.test-issue-folder.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-55</t>
+    <t>iam_menu_permission-56</t>
   </si>
   <si>
     <t>agile-service.issue-attachment.uploadForAddress</t>
   </si>
   <si>
-    <t>iam_menu_permission-56</t>
+    <t>iam_menu_permission-57</t>
   </si>
   <si>
     <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
   </si>
   <si>
-    <t>iam_menu_permission-57</t>
+    <t>iam_menu_permission-58</t>
   </si>
   <si>
     <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
-  </si>
-  <si>
     <t>iam_menu_permission-59</t>
   </si>
   <si>
@@ -2857,351 +2860,354 @@
     <t>iam_menu_permission-62</t>
   </si>
   <si>
+    <t>iam_menu_permission-63</t>
+  </si>
+  <si>
     <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-63</t>
+    <t>iam_menu_permission-64</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
   </si>
   <si>
-    <t>iam_menu_permission-64</t>
+    <t>iam_menu_permission-65</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-history.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-65</t>
+    <t>iam_menu_permission-66</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.querySubStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-66</t>
+    <t>iam_menu_permission-67</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-67</t>
+    <t>iam_menu_permission-68</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.batchAssignCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-68</t>
+    <t>iam_menu_permission-69</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-69</t>
+    <t>iam_menu_permission-70</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-70</t>
+    <t>iam_menu_permission-71</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.importCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-71</t>
+    <t>iam_menu_permission-72</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
   </si>
   <si>
-    <t>iam_menu_permission-72</t>
+    <t>iam_menu_permission-73</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-73</t>
+    <t>iam_menu_permission-74</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-74</t>
+    <t>iam_menu_permission-75</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-75</t>
+    <t>iam_menu_permission-76</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-76</t>
+    <t>iam_menu_permission-77</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-77</t>
+    <t>iam_menu_permission-78</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-78</t>
+    <t>iam_menu_permission-79</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-79</t>
+    <t>iam_menu_permission-80</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-80</t>
+    <t>iam_menu_permission-81</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-81</t>
+    <t>iam_menu_permission-82</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.moveFolder</t>
   </si>
   <si>
-    <t>iam_menu_permission-82</t>
+    <t>iam_menu_permission-83</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.operatePlanCalendar</t>
   </si>
   <si>
-    <t>iam_menu_permission-83</t>
+    <t>iam_menu_permission-84</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-84</t>
+    <t>iam_menu_permission-85</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-85</t>
-  </si>
-  <si>
     <t>iam_menu_permission-86</t>
   </si>
   <si>
+    <t>iam_menu_permission-87</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.clonePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-87</t>
+    <t>iam_menu_permission-88</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-88</t>
+    <t>iam_menu_permission-89</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.deletePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-89</t>
+    <t>iam_menu_permission-90</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-90</t>
+    <t>iam_menu_permission-91</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-91</t>
+    <t>iam_menu_permission-92</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-92</t>
+    <t>iam_menu_permission-93</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-93</t>
+    <t>iam_menu_permission-94</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.updateStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-94</t>
-  </si>
-  <si>
     <t>iam_menu_permission-95</t>
   </si>
   <si>
+    <t>iam_menu_permission-96</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinate</t>
   </si>
   <si>
-    <t>iam_menu_permission-96</t>
+    <t>iam_menu_permission-97</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryBurnDownReport</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-98</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReportByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-97</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-98</t>
+    <t>iam_menu_permission-99</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-100</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-99</t>
+    <t>iam_menu_permission-101</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNonWorkdays</t>
   </si>
   <si>
-    <t>iam_menu_permission-100</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-101</t>
-  </si>
-  <si>
     <t>iam_menu_permission-102</t>
   </si>
   <si>
+    <t>iam_menu_permission-103</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-104</t>
+  </si>
+  <si>
     <t>agile-service.sprint.queryIssueByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-103</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-104</t>
-  </si>
-  <si>
     <t>iam_menu_permission-105</t>
   </si>
   <si>
+    <t>iam_menu_permission-106</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-107</t>
+  </si>
+  <si>
     <t>agile-service.sprint.querySprintById</t>
   </si>
   <si>
-    <t>iam_menu_permission-106</t>
+    <t>iam_menu_permission-108</t>
   </si>
   <si>
     <t>agile-service.board.queryByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-107</t>
+    <t>iam_menu_permission-109</t>
   </si>
   <si>
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-108</t>
+    <t>iam_menu_permission-110</t>
   </si>
   <si>
     <t>agile-service.project-info.queryProjectInfoByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-109</t>
+    <t>iam_menu_permission-111</t>
   </si>
   <si>
     <t>agile-service.quick-filter.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-110</t>
+    <t>iam_menu_permission-112</t>
   </si>
   <si>
     <t>agile-service.report.queryCumulativeFlowDiagram</t>
   </si>
   <si>
-    <t>iam_menu_permission-111</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-112</t>
+    <t>iam_menu_permission-113</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-114</t>
   </si>
   <si>
     <t>agile-service.product-version.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-113</t>
+    <t>iam_menu_permission-115</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-114</t>
+    <t>iam_menu_permission-116</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-115</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-116</t>
+    <t>iam_menu_permission-117</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-118</t>
   </si>
   <si>
     <t>agile-service.report.queryVelocityChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-117</t>
+    <t>iam_menu_permission-119</t>
   </si>
   <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
-    <t>iam_menu_permission-118</t>
+    <t>iam_menu_permission-120</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-119</t>
+    <t>iam_menu_permission-121</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-120</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-121</t>
+    <t>iam_menu_permission-122</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-123</t>
   </si>
   <si>
     <t>agile-service.report.queryPieChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-122</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-123</t>
-  </si>
-  <si>
     <t>iam_menu_permission-124</t>
   </si>
   <si>
+    <t>iam_menu_permission-125</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-126</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinateByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-125</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-126</t>
-  </si>
-  <si>
     <t>iam_menu_permission-127</t>
   </si>
   <si>
@@ -3214,133 +3220,139 @@
     <t>iam_menu_permission-130</t>
   </si>
   <si>
+    <t>iam_menu_permission-131</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-132</t>
+  </si>
+  <si>
     <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-131</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-132</t>
+    <t>iam_menu_permission-133</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-134</t>
   </si>
   <si>
     <t>agile-service.scheme.queryStatusByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-133</t>
+    <t>iam_menu_permission-135</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssue</t>
   </si>
   <si>
-    <t>iam_menu_permission-134</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-135</t>
-  </si>
-  <si>
     <t>iam_menu_permission-136</t>
   </si>
   <si>
+    <t>iam_menu_permission-137</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-138</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.allPlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-137</t>
+    <t>iam_menu_permission-139</t>
   </si>
   <si>
     <t>devops-service.app-service.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-138</t>
+    <t>iam_menu_permission-140</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-139</t>
+    <t>iam_menu_permission-141</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-140</t>
+    <t>iam_menu_permission-142</t>
   </si>
   <si>
     <t>devops-service.app-service.getSonarQubeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-141</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-142</t>
-  </si>
-  <si>
     <t>iam_menu_permission-143</t>
   </si>
   <si>
+    <t>iam_menu_permission-144</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-145</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
   </si>
   <si>
-    <t>iam_menu_permission-144</t>
+    <t>iam_menu_permission-146</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-145</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-146</t>
+    <t>iam_menu_permission-147</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-148</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
   </si>
   <si>
-    <t>iam_menu_permission-147</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-148</t>
+    <t>iam_menu_permission-149</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-150</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployTimeReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-149</t>
+    <t>iam_menu_permission-151</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployTimeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-150</t>
+    <t>iam_menu_permission-152</t>
   </si>
   <si>
     <t>devops-service.app-service.listByEnvIdAndStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-151</t>
+    <t>iam_menu_permission-153</t>
   </si>
   <si>
     <t>devops-service.devops-environment.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-152</t>
+    <t>iam_menu_permission-154</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-153</t>
+    <t>iam_menu_permission-155</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-154</t>
+    <t>iam_menu_permission-156</t>
   </si>
   <si>
     <t>devops-service.app-service.listAll</t>
   </si>
   <si>
-    <t>iam_menu_permission-155</t>
+    <t>iam_menu_permission-157</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3916,6 +3928,9 @@
     <t>iam_role_permission-58</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>iam_role_permission-59</t>
   </si>
   <si>
@@ -3941,6 +3956,42 @@
   </si>
   <si>
     <t>iam_role_permission-67</t>
+  </si>
+  <si>
+    <t>iam_role_permission-68</t>
+  </si>
+  <si>
+    <t>iam_role_permission-69</t>
+  </si>
+  <si>
+    <t>iam_role_permission-70</t>
+  </si>
+  <si>
+    <t>iam_role_permission-71</t>
+  </si>
+  <si>
+    <t>iam_role_permission-72</t>
+  </si>
+  <si>
+    <t>iam_role_permission-73</t>
+  </si>
+  <si>
+    <t>iam_role_permission-74</t>
+  </si>
+  <si>
+    <t>iam_role_permission-75</t>
+  </si>
+  <si>
+    <t>iam_role_permission-76</t>
+  </si>
+  <si>
+    <t>iam_role_permission-77</t>
+  </si>
+  <si>
+    <t>iam_role_permission-78</t>
+  </si>
+  <si>
+    <t>iam_role_permission-79</t>
   </si>
   <si>
     <t>TENANT_MGR</t>
@@ -7080,7 +7131,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7656,7 +7707,7 @@
         <v>325</v>
       </c>
       <c r="F55">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="G55" t="s">
         <v>326</v>
@@ -7692,51 +7743,51 @@
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G58" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F59">
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G59" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F60">
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G60" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F61">
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G61" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F62">
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63">
@@ -7989,18 +8040,18 @@
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G85" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F86">
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G86" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87">
@@ -8088,18 +8139,18 @@
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F95">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="G95" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96">
@@ -8121,29 +8172,29 @@
         <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G97" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F98">
         <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G98" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F99">
         <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G99" t="s">
-        <v>407</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100">
@@ -8151,76 +8202,76 @@
         <v>408</v>
       </c>
       <c r="F100">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G100" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F101">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G101" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F102">
         <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="G102" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F103">
         <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="G103" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F104">
         <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="G104" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F105">
         <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="G105" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F106">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="G106" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107">
@@ -8228,7 +8279,7 @@
         <v>418</v>
       </c>
       <c r="F107">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="G107" t="s">
         <v>419</v>
@@ -8275,29 +8326,29 @@
         <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G111" t="s">
-        <v>330</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F112">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G112" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F113">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G113" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114">
@@ -8319,29 +8370,29 @@
         <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="G115" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F116">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="G116" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F117">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="G117" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118">
@@ -8349,7 +8400,7 @@
         <v>438</v>
       </c>
       <c r="F118">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="G118" t="s">
         <v>439</v>
@@ -8371,153 +8422,153 @@
         <v>442</v>
       </c>
       <c r="F120">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="G120" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F121">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="G121" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F122">
         <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="G122" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F123">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="G123" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F124">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="G124" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F125">
         <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G125" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F126">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G126" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F127">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G127" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F128">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G128" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F129">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G129" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F130">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G130" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F131">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G131" t="s">
-        <v>238</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F132">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G132" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F133">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G133" t="s">
-        <v>460</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134">
@@ -8528,40 +8579,40 @@
         <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G134" t="s">
-        <v>238</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F135">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G135" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F136">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G136" t="s">
-        <v>464</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F137">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="G137" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138">
@@ -8569,7 +8620,7 @@
         <v>467</v>
       </c>
       <c r="F138">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="G138" t="s">
         <v>468</v>
@@ -8591,7 +8642,7 @@
         <v>471</v>
       </c>
       <c r="F140">
-        <f>菜单SAAS版!$E$28</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="G140" t="s">
         <v>472</v>
@@ -8602,43 +8653,43 @@
         <v>473</v>
       </c>
       <c r="F141">
-        <f>菜单SAAS版!$E$28</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="G141" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F142">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$28</f>
       </c>
       <c r="G142" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F143">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$28</f>
       </c>
       <c r="G143" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F144">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G144" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="145">
@@ -8646,54 +8697,54 @@
         <v>479</v>
       </c>
       <c r="F145">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G145" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F146">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G146" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F147">
         <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="G147" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F148">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="G148" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F149">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="G149" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150">
@@ -8723,7 +8774,7 @@
         <v>491</v>
       </c>
       <c r="F152">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单SAAS版!$E$26</f>
       </c>
       <c r="G152" t="s">
         <v>492</v>
@@ -8734,7 +8785,7 @@
         <v>493</v>
       </c>
       <c r="F153">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单SAAS版!$E$26</f>
       </c>
       <c r="G153" t="s">
         <v>494</v>
@@ -8759,7 +8810,29 @@
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G155" t="s">
-        <v>490</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="s">
+        <v>499</v>
+      </c>
+      <c r="F156">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G156" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="s">
+        <v>501</v>
+      </c>
+      <c r="F157">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G157" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -8808,66 +8881,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D7" t="s" s="77">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="79">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G7" t="s" s="80">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="J7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="K7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="N7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="O7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J8" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -8881,25 +8954,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F9" t="s">
+        <v>520</v>
+      </c>
+      <c r="G9" t="s">
         <v>516</v>
       </c>
-      <c r="G9" t="s">
-        <v>512</v>
-      </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K9" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -8913,19 +8986,19 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -8939,19 +9012,19 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G11" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -8965,25 +9038,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F12" t="s">
+        <v>528</v>
+      </c>
+      <c r="G12" t="s">
+        <v>516</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
         <v>524</v>
       </c>
-      <c r="G12" t="s">
-        <v>512</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>520</v>
-      </c>
       <c r="J12" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K12" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -8997,22 +9070,22 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F13" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J13" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9026,22 +9099,22 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G14" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J14" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9055,22 +9128,22 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F15" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G15" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J15" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9084,22 +9157,22 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F16" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G16" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J16" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9113,25 +9186,25 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G17" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J17" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K17" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9145,25 +9218,25 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F18" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G18" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J18" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K18" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9177,25 +9250,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F19" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G19" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J19" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K19" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -9209,19 +9282,19 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F20" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G20" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -9235,25 +9308,25 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F21" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G21" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J21" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K21" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -9267,25 +9340,25 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F22" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G22" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J22" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K22" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -9299,25 +9372,25 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F23" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G23" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J23" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K23" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -9331,19 +9404,19 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F24" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G24" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -9357,22 +9430,22 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F25" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G25" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J25" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -9386,22 +9459,22 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F26" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G26" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J26" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -9421,33 +9494,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D28" t="s" s="81">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E28" t="s" s="82">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F28" t="s" s="83">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G28" t="s" s="84">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H28" t="s" s="85">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="I28" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F29" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G29">
         <f>菜单SAAS版!$E$32</f>
@@ -9456,15 +9529,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I29" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F30" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G30">
         <f>菜单SAAS版!$E$32</f>
@@ -9473,15 +9546,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I30" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F31" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G31">
         <f>菜单SAAS版!$E$32</f>
@@ -9490,15 +9563,15 @@
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I31" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F32" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G32">
         <f>菜单SAAS版!$E$32</f>
@@ -9507,15 +9580,15 @@
         <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I32" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F33" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G33">
         <f>菜单SAAS版!$E$32</f>
@@ -9524,15 +9597,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I33" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F34" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G34">
         <f>菜单SAAS版!$E$35</f>
@@ -9541,15 +9614,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I34" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F35" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G35">
         <f>菜单SAAS版!$E$35</f>
@@ -9558,15 +9631,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I35" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F36" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G36">
         <f>菜单SAAS版!$E$35</f>
@@ -9575,15 +9648,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I36" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F37" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G37">
         <f>菜单SAAS版!$E$37</f>
@@ -9592,15 +9665,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I37" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F38" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G38">
         <f>菜单SAAS版!$E$37</f>
@@ -9609,15 +9682,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I38" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F39" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G39">
         <f>菜单SAAS版!$E$37</f>
@@ -9626,15 +9699,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I39" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F40" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G40">
         <f>菜单SAAS版!$E$33</f>
@@ -9643,15 +9716,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I40" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F41" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G41">
         <f>菜单SAAS版!$E$33</f>
@@ -9660,15 +9733,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I41" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F42" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G42">
         <f>菜单SAAS版!$E$33</f>
@@ -9677,15 +9750,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I42" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F43" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G43">
         <f>菜单SAAS版!$E$8</f>
@@ -9694,15 +9767,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I43" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F44" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G44">
         <f>菜单SAAS版!$E$8</f>
@@ -9711,15 +9784,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I44" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F45" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G45">
         <f>菜单SAAS版!$E$8</f>
@@ -9728,15 +9801,15 @@
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I45" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F46" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G46">
         <f>菜单SAAS版!$E$8</f>
@@ -9745,15 +9818,15 @@
         <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I46" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F47" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G47">
         <f>菜单SAAS版!$E$8</f>
@@ -9762,15 +9835,15 @@
         <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I47" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F48" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G48">
         <f>菜单SAAS版!$E$8</f>
@@ -9779,15 +9852,15 @@
         <f>菜单标签数据!$E$21</f>
       </c>
       <c r="I48" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F49" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G49">
         <f>菜单SAAS版!$E$8</f>
@@ -9796,15 +9869,15 @@
         <f>菜单标签数据!$E$24</f>
       </c>
       <c r="I49" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F50" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G50">
         <f>菜单SAAS版!$E$8</f>
@@ -9813,15 +9886,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I50" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F51" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G51">
         <f>菜单SAAS版!$E$9</f>
@@ -9830,15 +9903,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I51" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F52" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G52">
         <f>菜单SAAS版!$E$9</f>
@@ -9847,15 +9920,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I52" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F53" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G53">
         <f>菜单SAAS版!$E$9</f>
@@ -9864,15 +9937,15 @@
         <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I53" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F54" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G54">
         <f>菜单SAAS版!$E$9</f>
@@ -9881,15 +9954,15 @@
         <f>菜单标签数据!$E$21</f>
       </c>
       <c r="I54" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F55" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G55">
         <f>菜单SAAS版!$E$9</f>
@@ -9898,15 +9971,15 @@
         <f>菜单标签数据!$E$24</f>
       </c>
       <c r="I55" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F56" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G56">
         <f>菜单SAAS版!$E$9</f>
@@ -9915,15 +9988,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I56" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F57" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G57">
         <f>菜单SAAS版!$E$29</f>
@@ -9932,15 +10005,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I57" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F58" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G58">
         <f>菜单SAAS版!$E$29</f>
@@ -9949,15 +10022,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I58" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F59" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G59">
         <f>菜单SAAS版!$E$29</f>
@@ -9966,15 +10039,15 @@
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I59" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F60" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G60">
         <f>菜单SAAS版!$E$29</f>
@@ -9983,15 +10056,15 @@
         <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I60" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F61" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G61">
         <f>菜单SAAS版!$E$29</f>
@@ -10000,15 +10073,15 @@
         <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I61" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F62" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G62">
         <f>菜单SAAS版!$E$29</f>
@@ -10017,15 +10090,15 @@
         <f>菜单标签数据!$E$21</f>
       </c>
       <c r="I62" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F63" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G63">
         <f>菜单SAAS版!$E$29</f>
@@ -10034,15 +10107,15 @@
         <f>菜单标签数据!$E$22</f>
       </c>
       <c r="I63" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F64" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G64">
         <f>菜单SAAS版!$E$29</f>
@@ -10051,15 +10124,15 @@
         <f>菜单标签数据!$E$24</f>
       </c>
       <c r="I64" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F65" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G65">
         <f>菜单SAAS版!$E$29</f>
@@ -10068,15 +10141,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I65" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F66" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G66">
         <f>菜单SAAS版!$E$30</f>
@@ -10085,15 +10158,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I66" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F67" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G67">
         <f>菜单SAAS版!$E$30</f>
@@ -10102,15 +10175,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I67" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F68" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G68">
         <f>菜单SAAS版!$E$30</f>
@@ -10119,15 +10192,15 @@
         <f>菜单标签数据!$E$26</f>
       </c>
       <c r="I68" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F69" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G69">
         <f>菜单SAAS版!$E$25</f>
@@ -10136,15 +10209,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I69" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F70" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G70">
         <f>菜单SAAS版!$E$25</f>
@@ -10153,15 +10226,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I70" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F71" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G71">
         <f>菜单SAAS版!$E$25</f>
@@ -10170,15 +10243,15 @@
         <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I71" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F72" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G72">
         <f>菜单SAAS版!$E$31</f>
@@ -10187,15 +10260,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I72" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F73" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G73">
         <f>菜单SAAS版!$E$31</f>
@@ -10204,15 +10277,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I73" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F74" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G74">
         <f>菜单SAAS版!$E$34</f>
@@ -10221,15 +10294,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I74" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F75" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G75">
         <f>菜单SAAS版!$E$34</f>
@@ -10238,15 +10311,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I75" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F76" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G76">
         <f>菜单SAAS版!$E$36</f>
@@ -10255,15 +10328,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F77" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G77">
         <f>菜单SAAS版!$E$36</f>
@@ -10272,15 +10345,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I77" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F78" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G78">
         <f>菜单SAAS版!$E$38</f>
@@ -10289,15 +10362,15 @@
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I78" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F79" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G79">
         <f>菜单SAAS版!$E$38</f>
@@ -10306,7 +10379,7 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I79" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -10316,7 +10389,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10355,10 +10428,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D7" t="s" s="86">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E7" t="s" s="87">
         <v>54</v>
@@ -10376,72 +10449,72 @@
         <v>208</v>
       </c>
       <c r="J7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K7" t="s" s="89">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M7" t="s" s="90">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="N7" t="s" s="91">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="O7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Q7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="R7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="T7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="W7" t="s" s="92">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="X7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Y7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G8" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H8" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I8" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="J8" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -10474,10 +10547,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="V8" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -10485,19 +10558,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F9" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G9" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -10533,10 +10606,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="V9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -10544,16 +10617,16 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F10" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G10" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H10" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -10589,33 +10662,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="V10" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="Y10" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F11" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G11" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="H11" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -10651,33 +10724,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="V11" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="Y11" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F12" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G12" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="H12" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -10713,33 +10786,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="V12" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="Y12" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F13" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G13" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H13" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -10775,36 +10848,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="V13" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="Y13" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F14" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="G14" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H14" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J14" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K14" t="s">
         <v>80</v>
@@ -10837,10 +10910,10 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="V14" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16">
@@ -10851,33 +10924,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D16" t="s" s="93">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E16" t="s" s="94">
         <v>54</v>
       </c>
       <c r="F16" t="s" s="95">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G16" t="s" s="96">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H16" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I16" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="J16" t="s" s="97">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F17">
         <f>角色!$E$10</f>
@@ -10886,18 +10959,18 @@
         <f>菜单SAAS版!$E$25</f>
       </c>
       <c r="H17" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I17" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J17" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F18">
         <f>角色!$E$10</f>
@@ -10906,18 +10979,18 @@
         <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="H18" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I18" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J18" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F19">
         <f>角色!$E$10</f>
@@ -10926,18 +10999,18 @@
         <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="H19" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I19" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J19" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F20">
         <f>角色!$E$10</f>
@@ -10946,18 +11019,18 @@
         <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="H20" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I20" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J20" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F21">
         <f>角色!$E$10</f>
@@ -10966,18 +11039,18 @@
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="H21" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I21" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J21" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F22">
         <f>角色!$E$10</f>
@@ -10986,18 +11059,18 @@
         <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H22" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I22" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J22" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F23">
         <f>角色!$E$10</f>
@@ -11006,18 +11079,18 @@
         <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H23" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I23" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J23" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F24">
         <f>角色!$E$10</f>
@@ -11026,18 +11099,18 @@
         <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H24" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I24" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J24" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F25">
         <f>角色!$E$10</f>
@@ -11046,18 +11119,18 @@
         <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="H25" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I25" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J25" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F26">
         <f>角色!$E$10</f>
@@ -11066,18 +11139,18 @@
         <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H26" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I26" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J26" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F27">
         <f>角色!$E$10</f>
@@ -11086,18 +11159,18 @@
         <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H27" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I27" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J27" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F28">
         <f>角色!$E$10</f>
@@ -11106,18 +11179,18 @@
         <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H28" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I28" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J28" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F29">
         <f>角色!$E$10</f>
@@ -11126,18 +11199,18 @@
         <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H29" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I29" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J29" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F30">
         <f>角色!$E$10</f>
@@ -11146,18 +11219,18 @@
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H30" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I30" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J30" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F31">
         <f>角色!$E$10</f>
@@ -11166,18 +11239,18 @@
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H31" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I31" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J31" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F32">
         <f>角色!$E$10</f>
@@ -11186,18 +11259,18 @@
         <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H32" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I32" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J32" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F33">
         <f>角色!$E$10</f>
@@ -11206,18 +11279,18 @@
         <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H33" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I33" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J33" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F34">
         <f>角色!$E$12</f>
@@ -11226,18 +11299,18 @@
         <f>菜单SAAS版!$E$25</f>
       </c>
       <c r="H34" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I34" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J34" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F35">
         <f>角色!$E$12</f>
@@ -11246,18 +11319,18 @@
         <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="H35" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I35" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J35" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F36">
         <f>角色!$E$12</f>
@@ -11266,18 +11339,18 @@
         <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="H36" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I36" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J36" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F37">
         <f>角色!$E$12</f>
@@ -11286,18 +11359,18 @@
         <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="H37" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I37" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J37" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F38">
         <f>角色!$E$12</f>
@@ -11306,18 +11379,18 @@
         <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="H38" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I38" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J38" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F39">
         <f>角色!$E$12</f>
@@ -11326,18 +11399,18 @@
         <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H39" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I39" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J39" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F40">
         <f>角色!$E$12</f>
@@ -11346,18 +11419,18 @@
         <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H40" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I40" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J40" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F41">
         <f>角色!$E$12</f>
@@ -11366,18 +11439,18 @@
         <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H41" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I41" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J41" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F42">
         <f>角色!$E$12</f>
@@ -11386,18 +11459,18 @@
         <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="H42" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I42" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J42" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F43">
         <f>角色!$E$12</f>
@@ -11406,18 +11479,18 @@
         <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H43" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I43" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J43" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F44">
         <f>角色!$E$12</f>
@@ -11426,18 +11499,18 @@
         <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H44" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I44" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J44" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F45">
         <f>角色!$E$12</f>
@@ -11446,18 +11519,18 @@
         <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H45" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I45" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J45" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F46">
         <f>角色!$E$12</f>
@@ -11466,18 +11539,18 @@
         <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H46" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I46" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J46" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F47">
         <f>角色!$E$12</f>
@@ -11486,18 +11559,18 @@
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H47" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I47" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J47" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F48">
         <f>角色!$E$12</f>
@@ -11506,18 +11579,18 @@
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H48" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I48" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J48" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F49">
         <f>角色!$E$12</f>
@@ -11526,18 +11599,18 @@
         <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H49" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I49" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J49" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F50">
         <f>角色!$E$12</f>
@@ -11546,353 +11619,593 @@
         <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H50" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I50" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J50" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F51">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G51">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H51" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I51" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J51" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F52">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G52">
-        <f>菜单SAAS版!$E$31</f>
+        <f>菜单SAAS版!$E$28</f>
       </c>
       <c r="H52" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I52" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J52" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F53">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G53">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H53" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I53" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J53" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F54">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G54">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H54" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I54" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J54" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F55">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G55">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$26</f>
       </c>
       <c r="H55" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I55" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J55" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F56">
-        <f>角色!$E$13</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G56">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="H56" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I56" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J56" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F57">
         <f>角色!$E$13</f>
       </c>
       <c r="G57">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$25</f>
       </c>
       <c r="H57" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I57" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J57" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F58">
         <f>角色!$E$13</f>
       </c>
       <c r="G58">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$31</f>
       </c>
       <c r="H58" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="I58" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J58" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="F59">
         <f>角色!$E$13</f>
       </c>
       <c r="G59">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$34</f>
       </c>
       <c r="H59" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I59" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J59" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="F60">
         <f>角色!$E$13</f>
       </c>
       <c r="G60">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$36</f>
       </c>
       <c r="H60" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I60" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J60" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="F61">
         <f>角色!$E$13</f>
       </c>
       <c r="G61">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$38</f>
       </c>
       <c r="H61" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I61" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J61" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="F62">
         <f>角色!$E$13</f>
       </c>
       <c r="G62">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H62" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I62" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J62" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="F63">
         <f>角色!$E$13</f>
       </c>
       <c r="G63">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$20</f>
       </c>
       <c r="H63" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I63" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J63" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="F64">
         <f>角色!$E$13</f>
       </c>
       <c r="G64">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H64" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I64" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J64" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="F65">
         <f>角色!$E$13</f>
       </c>
       <c r="G65">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$23</f>
       </c>
       <c r="H65" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I65" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J65" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="F66">
         <f>角色!$E$13</f>
       </c>
       <c r="G66">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$21</f>
       </c>
       <c r="H66" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I66" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J66" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="F67">
         <f>角色!$E$13</f>
       </c>
       <c r="G67">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H67" t="s">
+        <v>649</v>
+      </c>
+      <c r="I67" t="s">
+        <v>650</v>
+      </c>
+      <c r="J67" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>703</v>
+      </c>
+      <c r="F68">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G68">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H68" t="s">
+        <v>649</v>
+      </c>
+      <c r="I68" t="s">
+        <v>650</v>
+      </c>
+      <c r="J68" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>704</v>
+      </c>
+      <c r="F69">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G69">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H69" t="s">
+        <v>649</v>
+      </c>
+      <c r="I69" t="s">
+        <v>650</v>
+      </c>
+      <c r="J69" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>705</v>
+      </c>
+      <c r="F70">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G70">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H70" t="s">
+        <v>649</v>
+      </c>
+      <c r="I70" t="s">
+        <v>650</v>
+      </c>
+      <c r="J70" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>706</v>
+      </c>
+      <c r="F71">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G71">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H71" t="s">
+        <v>649</v>
+      </c>
+      <c r="I71" t="s">
+        <v>650</v>
+      </c>
+      <c r="J71" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>707</v>
+      </c>
+      <c r="F72">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G72">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H72" t="s">
+        <v>649</v>
+      </c>
+      <c r="I72" t="s">
+        <v>650</v>
+      </c>
+      <c r="J72" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>708</v>
+      </c>
+      <c r="F73">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G73">
         <f>菜单SAAS版!$E$16</f>
       </c>
-      <c r="H67" t="s">
-        <v>645</v>
-      </c>
-      <c r="I67" t="s">
-        <v>646</v>
-      </c>
-      <c r="J67" t="s">
-        <v>647</v>
+      <c r="H73" t="s">
+        <v>649</v>
+      </c>
+      <c r="I73" t="s">
+        <v>650</v>
+      </c>
+      <c r="J73" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>709</v>
+      </c>
+      <c r="F74">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G74">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="H74" t="s">
+        <v>649</v>
+      </c>
+      <c r="I74" t="s">
+        <v>650</v>
+      </c>
+      <c r="J74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>710</v>
+      </c>
+      <c r="F75">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G75">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="H75" t="s">
+        <v>649</v>
+      </c>
+      <c r="I75" t="s">
+        <v>650</v>
+      </c>
+      <c r="J75" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>711</v>
+      </c>
+      <c r="F76">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G76">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H76" t="s">
+        <v>649</v>
+      </c>
+      <c r="I76" t="s">
+        <v>650</v>
+      </c>
+      <c r="J76" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>712</v>
+      </c>
+      <c r="F77">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G77">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H77" t="s">
+        <v>649</v>
+      </c>
+      <c r="I77" t="s">
+        <v>650</v>
+      </c>
+      <c r="J77" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>713</v>
+      </c>
+      <c r="F78">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G78">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="H78" t="s">
+        <v>649</v>
+      </c>
+      <c r="I78" t="s">
+        <v>650</v>
+      </c>
+      <c r="J78" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>714</v>
+      </c>
+      <c r="F79">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G79">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H79" t="s">
+        <v>649</v>
+      </c>
+      <c r="I79" t="s">
+        <v>650</v>
+      </c>
+      <c r="J79" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -11941,66 +12254,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D7" t="s" s="98">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E7" t="s" s="99">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="100">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G7" t="s" s="101">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="J7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="K7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="N7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="O7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F8" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="G8" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J8" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="K8" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -12014,22 +12327,22 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F9" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="G9" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J9" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -12043,25 +12356,25 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F10" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="G10" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J10" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="K10" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -12075,25 +12388,25 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F11" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="G11" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J11" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="K11" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -12107,25 +12420,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F12" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="G12" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J12" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="K12" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -12139,25 +12452,25 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F13" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="G13" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J13" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="K13" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -12171,25 +12484,25 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="G14" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J14" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="K14" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -12203,25 +12516,25 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F15" t="s">
+        <v>733</v>
+      </c>
+      <c r="G15" t="s">
         <v>716</v>
       </c>
-      <c r="G15" t="s">
-        <v>699</v>
-      </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J15" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="K15" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -12235,25 +12548,25 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F16" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="G16" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J16" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="K16" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -12267,25 +12580,25 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G17" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J17" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="K17" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -12299,25 +12612,25 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F18" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="G18" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J18" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="K18" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -12331,25 +12644,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F19" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="G19" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J19" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="K19" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -12369,33 +12682,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D21" t="s" s="102">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E21" t="s" s="103">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F21" t="s" s="104">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G21" t="s" s="105">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H21" t="s" s="106">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="I21" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F22" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G22">
         <f>角色!$E$10</f>
@@ -12404,15 +12717,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F23" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G23">
         <f>角色!$E$10</f>
@@ -12421,15 +12734,15 @@
         <f>角色标签数据!$E$11</f>
       </c>
       <c r="I23" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F24" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G24">
         <f>角色!$E$10</f>
@@ -12438,15 +12751,15 @@
         <f>角色标签数据!$E$12</f>
       </c>
       <c r="I24" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F25" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G25">
         <f>角色!$E$11</f>
@@ -12455,15 +12768,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I25" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F26" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G26">
         <f>角色!$E$11</f>
@@ -12472,15 +12785,15 @@
         <f>角色标签数据!$E$11</f>
       </c>
       <c r="I26" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F27" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G27">
         <f>角色!$E$11</f>
@@ -12489,15 +12802,15 @@
         <f>角色标签数据!$E$15</f>
       </c>
       <c r="I27" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F28" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G28">
         <f>角色!$E$12</f>
@@ -12506,15 +12819,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I28" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F29" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G29">
         <f>角色!$E$12</f>
@@ -12523,15 +12836,15 @@
         <f>角色标签数据!$E$13</f>
       </c>
       <c r="I29" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F30" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G30">
         <f>角色!$E$12</f>
@@ -12540,15 +12853,15 @@
         <f>角色标签数据!$E$14</f>
       </c>
       <c r="I30" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F31" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G31">
         <f>角色!$E$12</f>
@@ -12557,15 +12870,15 @@
         <f>角色标签数据!$E$18</f>
       </c>
       <c r="I31" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F32" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G32">
         <f>角色!$E$13</f>
@@ -12574,15 +12887,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I32" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F33" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G33">
         <f>角色!$E$13</f>
@@ -12591,15 +12904,15 @@
         <f>角色标签数据!$E$13</f>
       </c>
       <c r="I33" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F34" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G34">
         <f>角色!$E$13</f>
@@ -12608,15 +12921,15 @@
         <f>角色标签数据!$E$16</f>
       </c>
       <c r="I34" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F35" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G35">
         <f>角色!$E$13</f>
@@ -12625,7 +12938,7 @@
         <f>角色标签数据!$E$19</f>
       </c>
       <c r="I35" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
